--- a/DJI_Mavic_Air/DJI_Mavic_Air.xlsx
+++ b/DJI_Mavic_Air/DJI_Mavic_Air.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data Kuliah\S2 ITS\Semester 2\TESIS - PROPOSAL\DATASET PREPARATION\drone-timeline\DJI_Mavic_Air\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\6025211018 - Swardiantara S\drone-timeline\DJI_Mavic_Air\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81BA220F-3C5B-4F64-B8DC-6EDC72341325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{FD99DDE1-4F3C-4096-8CE6-8B016DA80903}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="df048" sheetId="1" r:id="rId1"/>
+    <sheet name="df050" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="245">
   <si>
     <t>#</t>
   </si>
@@ -676,12 +676,105 @@
   </si>
   <si>
     <t>3m 31.2s</t>
+  </si>
+  <si>
+    <t>0m 0.7s</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Takeoff (RC Assisted)</t>
+  </si>
+  <si>
+    <t>0K1DF2P1BD65JJ</t>
+  </si>
+  <si>
+    <t>0K4AEBPA340178</t>
+  </si>
+  <si>
+    <t>Data Recorder File Index is 12.</t>
+  </si>
+  <si>
+    <t>0m 3.7s</t>
+  </si>
+  <si>
+    <t>Sport</t>
+  </si>
+  <si>
+    <t>0m 1.5s</t>
+  </si>
+  <si>
+    <t>Manual Takeoff</t>
+  </si>
+  <si>
+    <t>Remote controller assisted takeoff initiated.</t>
+  </si>
+  <si>
+    <t>0m 0.4s</t>
+  </si>
+  <si>
+    <t>Card Full</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>0K1DF2P1BD</t>
+  </si>
+  <si>
+    <t>Data Recorder File Index is 15.</t>
+  </si>
+  <si>
+    <t>0m 3.9s</t>
+  </si>
+  <si>
+    <t>0m 6.9s</t>
+  </si>
+  <si>
+    <t>Home Point recorded. Return-to-Home Altitude:98FT.</t>
+  </si>
+  <si>
+    <t>0m 5.5s</t>
+  </si>
+  <si>
+    <t>3m 22.5s</t>
+  </si>
+  <si>
+    <t>SD card write speed is too slow. Not suitable for shooting a 4K video.</t>
+  </si>
+  <si>
+    <t>1m 14.9s</t>
+  </si>
+  <si>
+    <t>High wind velocity. Fly with caution.</t>
+  </si>
+  <si>
+    <t>1m 24.9s</t>
+  </si>
+  <si>
+    <t>3m 6.9s</t>
+  </si>
+  <si>
+    <t>4m 0.9s</t>
+  </si>
+  <si>
+    <t>4m 32.9s</t>
+  </si>
+  <si>
+    <t>5m 42.9s</t>
+  </si>
+  <si>
+    <t>6m 33.9s</t>
+  </si>
+  <si>
+    <t>User Battery Req Go Home</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1028,10 +1121,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{837D40C5-8D4E-4BB8-A6C3-DDFCF347137D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FK13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
@@ -6176,4 +6269,8004 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:FK21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:167" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CJ1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CK1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CL1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CM1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CN1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CO1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CP1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CQ1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CR1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CS1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CT1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CU1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CV1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CW1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CX1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CY1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CZ1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DA1" t="s">
+        <v>104</v>
+      </c>
+      <c r="DB1" t="s">
+        <v>105</v>
+      </c>
+      <c r="DC1" t="s">
+        <v>106</v>
+      </c>
+      <c r="DD1" t="s">
+        <v>107</v>
+      </c>
+      <c r="DE1" t="s">
+        <v>108</v>
+      </c>
+      <c r="DF1" t="s">
+        <v>109</v>
+      </c>
+      <c r="DG1" t="s">
+        <v>110</v>
+      </c>
+      <c r="DH1" t="s">
+        <v>111</v>
+      </c>
+      <c r="DI1" t="s">
+        <v>112</v>
+      </c>
+      <c r="DJ1" t="s">
+        <v>113</v>
+      </c>
+      <c r="DK1" t="s">
+        <v>114</v>
+      </c>
+      <c r="DL1" t="s">
+        <v>115</v>
+      </c>
+      <c r="DM1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DN1" t="s">
+        <v>117</v>
+      </c>
+      <c r="DO1" t="s">
+        <v>118</v>
+      </c>
+      <c r="DP1" t="s">
+        <v>119</v>
+      </c>
+      <c r="DQ1" t="s">
+        <v>120</v>
+      </c>
+      <c r="DR1" t="s">
+        <v>121</v>
+      </c>
+      <c r="DS1" t="s">
+        <v>122</v>
+      </c>
+      <c r="DT1" t="s">
+        <v>123</v>
+      </c>
+      <c r="DU1" t="s">
+        <v>124</v>
+      </c>
+      <c r="DV1" t="s">
+        <v>125</v>
+      </c>
+      <c r="DW1" t="s">
+        <v>126</v>
+      </c>
+      <c r="DX1" t="s">
+        <v>127</v>
+      </c>
+      <c r="DY1" t="s">
+        <v>128</v>
+      </c>
+      <c r="DZ1" t="s">
+        <v>129</v>
+      </c>
+      <c r="EA1" t="s">
+        <v>130</v>
+      </c>
+      <c r="EB1" t="s">
+        <v>131</v>
+      </c>
+      <c r="EC1" t="s">
+        <v>132</v>
+      </c>
+      <c r="ED1" t="s">
+        <v>133</v>
+      </c>
+      <c r="EE1" t="s">
+        <v>134</v>
+      </c>
+      <c r="EF1" t="s">
+        <v>135</v>
+      </c>
+      <c r="EG1" t="s">
+        <v>136</v>
+      </c>
+      <c r="EH1" t="s">
+        <v>137</v>
+      </c>
+      <c r="EI1" t="s">
+        <v>138</v>
+      </c>
+      <c r="EJ1" t="s">
+        <v>139</v>
+      </c>
+      <c r="EK1" t="s">
+        <v>140</v>
+      </c>
+      <c r="EL1" t="s">
+        <v>141</v>
+      </c>
+      <c r="EM1" t="s">
+        <v>142</v>
+      </c>
+      <c r="EN1" t="s">
+        <v>143</v>
+      </c>
+      <c r="EO1" t="s">
+        <v>144</v>
+      </c>
+      <c r="EP1" t="s">
+        <v>145</v>
+      </c>
+      <c r="EQ1" t="s">
+        <v>146</v>
+      </c>
+      <c r="ER1" t="s">
+        <v>147</v>
+      </c>
+      <c r="ES1" t="s">
+        <v>148</v>
+      </c>
+      <c r="ET1" t="s">
+        <v>149</v>
+      </c>
+      <c r="EU1" t="s">
+        <v>150</v>
+      </c>
+      <c r="EV1" t="s">
+        <v>151</v>
+      </c>
+      <c r="EW1" t="s">
+        <v>152</v>
+      </c>
+      <c r="EX1" t="s">
+        <v>153</v>
+      </c>
+      <c r="EY1" t="s">
+        <v>154</v>
+      </c>
+      <c r="EZ1" t="s">
+        <v>155</v>
+      </c>
+      <c r="FA1" t="s">
+        <v>156</v>
+      </c>
+      <c r="FB1" t="s">
+        <v>157</v>
+      </c>
+      <c r="FC1" t="s">
+        <v>158</v>
+      </c>
+      <c r="FD1" t="s">
+        <v>159</v>
+      </c>
+      <c r="FE1" t="s">
+        <v>160</v>
+      </c>
+      <c r="FF1" t="s">
+        <v>161</v>
+      </c>
+      <c r="FG1" t="s">
+        <v>162</v>
+      </c>
+      <c r="FH1" t="s">
+        <v>163</v>
+      </c>
+      <c r="FI1" t="s">
+        <v>164</v>
+      </c>
+      <c r="FJ1" t="s">
+        <v>165</v>
+      </c>
+      <c r="FK1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:167" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>43209</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.78226967592592589</v>
+      </c>
+      <c r="D2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E2">
+        <v>0.7</v>
+      </c>
+      <c r="F2">
+        <v>39.961308809999998</v>
+      </c>
+      <c r="G2">
+        <v>-106.21639913</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0.3</v>
+      </c>
+      <c r="K2">
+        <v>8128</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>1.3</v>
+      </c>
+      <c r="U2">
+        <v>10.7</v>
+      </c>
+      <c r="V2">
+        <v>-115.4</v>
+      </c>
+      <c r="W2">
+        <v>244.6</v>
+      </c>
+      <c r="X2" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>216</v>
+      </c>
+      <c r="AA2">
+        <v>17</v>
+      </c>
+      <c r="AB2">
+        <v>5</v>
+      </c>
+      <c r="AC2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>171</v>
+      </c>
+      <c r="AF2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>172</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>173</v>
+      </c>
+      <c r="AK2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>174</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>1.9</v>
+      </c>
+      <c r="BF2">
+        <v>-115.7</v>
+      </c>
+      <c r="BG2">
+        <v>244.3</v>
+      </c>
+      <c r="BH2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BI2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BK2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BL2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BM2" t="b">
+        <v>1</v>
+      </c>
+      <c r="BO2" t="b">
+        <v>1</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>175</v>
+      </c>
+      <c r="BS2">
+        <v>1024</v>
+      </c>
+      <c r="BT2">
+        <v>1024</v>
+      </c>
+      <c r="BU2">
+        <v>1024</v>
+      </c>
+      <c r="BV2">
+        <v>1024</v>
+      </c>
+      <c r="BW2">
+        <v>0</v>
+      </c>
+      <c r="BX2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BY2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BZ2" t="b">
+        <v>0</v>
+      </c>
+      <c r="CA2" t="b">
+        <v>0</v>
+      </c>
+      <c r="CB2" t="b">
+        <v>0</v>
+      </c>
+      <c r="CC2">
+        <v>0</v>
+      </c>
+      <c r="CD2" t="b">
+        <v>0</v>
+      </c>
+      <c r="CE2" t="b">
+        <v>0</v>
+      </c>
+      <c r="CF2" t="b">
+        <v>0</v>
+      </c>
+      <c r="CG2" t="b">
+        <v>0</v>
+      </c>
+      <c r="CH2">
+        <v>95</v>
+      </c>
+      <c r="CL2">
+        <v>12.521000000000001</v>
+      </c>
+      <c r="CM2" t="b">
+        <v>1</v>
+      </c>
+      <c r="CN2">
+        <v>4.1740000000000004</v>
+      </c>
+      <c r="CO2">
+        <v>4.1740000000000004</v>
+      </c>
+      <c r="CP2">
+        <v>4.1740000000000004</v>
+      </c>
+      <c r="CR2" t="b">
+        <v>0</v>
+      </c>
+      <c r="CS2" t="b">
+        <v>0</v>
+      </c>
+      <c r="CX2">
+        <v>0</v>
+      </c>
+      <c r="CY2">
+        <v>0</v>
+      </c>
+      <c r="CZ2">
+        <v>0</v>
+      </c>
+      <c r="DA2">
+        <v>15</v>
+      </c>
+      <c r="DB2">
+        <v>10</v>
+      </c>
+      <c r="DC2">
+        <v>4935.6000000000004</v>
+      </c>
+      <c r="DD2">
+        <v>1265.53</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>176</v>
+      </c>
+      <c r="DG2">
+        <v>0</v>
+      </c>
+      <c r="DH2">
+        <v>30</v>
+      </c>
+      <c r="DI2" t="b">
+        <v>0</v>
+      </c>
+      <c r="DJ2">
+        <v>10</v>
+      </c>
+      <c r="DK2" t="b">
+        <v>1</v>
+      </c>
+      <c r="DM2" t="s">
+        <v>177</v>
+      </c>
+      <c r="DN2">
+        <v>39.96130823</v>
+      </c>
+      <c r="DO2">
+        <v>-106.21640155999999</v>
+      </c>
+      <c r="DP2">
+        <v>0.7</v>
+      </c>
+      <c r="DQ2">
+        <v>7938.4</v>
+      </c>
+      <c r="DR2">
+        <v>393.7</v>
+      </c>
+      <c r="DS2" t="b">
+        <v>1</v>
+      </c>
+      <c r="DT2">
+        <v>1</v>
+      </c>
+      <c r="DU2">
+        <v>1</v>
+      </c>
+      <c r="DV2" t="b">
+        <v>0</v>
+      </c>
+      <c r="DW2" t="b">
+        <v>0</v>
+      </c>
+      <c r="DX2" t="b">
+        <v>0</v>
+      </c>
+      <c r="DY2" t="b">
+        <v>0</v>
+      </c>
+      <c r="DZ2">
+        <v>0</v>
+      </c>
+      <c r="EA2" t="b">
+        <v>1</v>
+      </c>
+      <c r="EB2" t="b">
+        <v>0</v>
+      </c>
+      <c r="EC2" t="b">
+        <v>0</v>
+      </c>
+      <c r="ED2" t="s">
+        <v>178</v>
+      </c>
+      <c r="EE2">
+        <v>98.4</v>
+      </c>
+      <c r="EG2">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="EH2" t="s">
+        <v>179</v>
+      </c>
+      <c r="EI2">
+        <v>12</v>
+      </c>
+      <c r="EJ2" t="s">
+        <v>180</v>
+      </c>
+      <c r="EK2" t="s">
+        <v>181</v>
+      </c>
+      <c r="EL2" t="s">
+        <v>182</v>
+      </c>
+      <c r="EM2" t="s">
+        <v>217</v>
+      </c>
+      <c r="EP2" t="s">
+        <v>218</v>
+      </c>
+      <c r="EQ2">
+        <v>44.5</v>
+      </c>
+      <c r="ER2">
+        <v>25.9</v>
+      </c>
+      <c r="ES2">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="ET2">
+        <v>5.7</v>
+      </c>
+      <c r="EU2">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="EV2">
+        <v>0</v>
+      </c>
+      <c r="EW2">
+        <v>44</v>
+      </c>
+      <c r="EX2" t="s">
+        <v>182</v>
+      </c>
+      <c r="EY2" t="s">
+        <v>217</v>
+      </c>
+      <c r="FB2" t="s">
+        <v>218</v>
+      </c>
+      <c r="FD2" t="s">
+        <v>180</v>
+      </c>
+      <c r="FE2" t="s">
+        <v>181</v>
+      </c>
+      <c r="FI2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="3" spans="1:167" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1">
+        <v>43209</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.78227847222222213</v>
+      </c>
+      <c r="D3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E3">
+        <v>1.5</v>
+      </c>
+      <c r="F3">
+        <v>39.961308940000002</v>
+      </c>
+      <c r="G3">
+        <v>-106.21639924</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0.3</v>
+      </c>
+      <c r="K3">
+        <v>8128</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>1.3</v>
+      </c>
+      <c r="U3">
+        <v>10.8</v>
+      </c>
+      <c r="V3">
+        <v>-115.4</v>
+      </c>
+      <c r="W3">
+        <v>244.6</v>
+      </c>
+      <c r="X3" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>216</v>
+      </c>
+      <c r="AA3">
+        <v>17</v>
+      </c>
+      <c r="AB3">
+        <v>5</v>
+      </c>
+      <c r="AC3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>171</v>
+      </c>
+      <c r="AF3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>172</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>173</v>
+      </c>
+      <c r="AK3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>174</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>1.9</v>
+      </c>
+      <c r="BF3">
+        <v>-115.7</v>
+      </c>
+      <c r="BG3">
+        <v>244.3</v>
+      </c>
+      <c r="BH3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BI3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BK3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BL3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BM3" t="b">
+        <v>1</v>
+      </c>
+      <c r="BO3" t="b">
+        <v>1</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>175</v>
+      </c>
+      <c r="BS3">
+        <v>1024</v>
+      </c>
+      <c r="BT3">
+        <v>1024</v>
+      </c>
+      <c r="BU3">
+        <v>1024</v>
+      </c>
+      <c r="BV3">
+        <v>1024</v>
+      </c>
+      <c r="BW3">
+        <v>0</v>
+      </c>
+      <c r="BX3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BY3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BZ3" t="b">
+        <v>0</v>
+      </c>
+      <c r="CA3" t="b">
+        <v>0</v>
+      </c>
+      <c r="CB3" t="b">
+        <v>0</v>
+      </c>
+      <c r="CC3">
+        <v>0</v>
+      </c>
+      <c r="CD3" t="b">
+        <v>0</v>
+      </c>
+      <c r="CE3" t="b">
+        <v>0</v>
+      </c>
+      <c r="CF3" t="b">
+        <v>0</v>
+      </c>
+      <c r="CG3" t="b">
+        <v>0</v>
+      </c>
+      <c r="CH3">
+        <v>95</v>
+      </c>
+      <c r="CL3">
+        <v>12.484</v>
+      </c>
+      <c r="CM3" t="b">
+        <v>0</v>
+      </c>
+      <c r="CN3">
+        <v>4.1760000000000002</v>
+      </c>
+      <c r="CO3">
+        <v>4.1550000000000002</v>
+      </c>
+      <c r="CP3">
+        <v>4.1529999999999996</v>
+      </c>
+      <c r="CQ3">
+        <v>2.3E-2</v>
+      </c>
+      <c r="CR3" t="b">
+        <v>0</v>
+      </c>
+      <c r="CS3" t="b">
+        <v>0</v>
+      </c>
+      <c r="CX3">
+        <v>0</v>
+      </c>
+      <c r="CY3">
+        <v>0</v>
+      </c>
+      <c r="CZ3">
+        <v>0</v>
+      </c>
+      <c r="DA3">
+        <v>15</v>
+      </c>
+      <c r="DB3">
+        <v>10</v>
+      </c>
+      <c r="DC3">
+        <v>4935.6000000000004</v>
+      </c>
+      <c r="DD3">
+        <v>1265.53</v>
+      </c>
+      <c r="DF3" t="s">
+        <v>176</v>
+      </c>
+      <c r="DG3">
+        <v>0</v>
+      </c>
+      <c r="DH3">
+        <v>30</v>
+      </c>
+      <c r="DI3" t="b">
+        <v>0</v>
+      </c>
+      <c r="DJ3">
+        <v>10</v>
+      </c>
+      <c r="DK3" t="b">
+        <v>1</v>
+      </c>
+      <c r="DM3" t="s">
+        <v>177</v>
+      </c>
+      <c r="DN3">
+        <v>39.96130823</v>
+      </c>
+      <c r="DO3">
+        <v>-106.21640155999999</v>
+      </c>
+      <c r="DP3">
+        <v>0.7</v>
+      </c>
+      <c r="DQ3">
+        <v>7938.4</v>
+      </c>
+      <c r="DR3">
+        <v>393.7</v>
+      </c>
+      <c r="DS3" t="b">
+        <v>1</v>
+      </c>
+      <c r="DT3">
+        <v>1</v>
+      </c>
+      <c r="DU3">
+        <v>1</v>
+      </c>
+      <c r="DV3" t="b">
+        <v>0</v>
+      </c>
+      <c r="DW3" t="b">
+        <v>0</v>
+      </c>
+      <c r="DX3" t="b">
+        <v>0</v>
+      </c>
+      <c r="DY3" t="b">
+        <v>0</v>
+      </c>
+      <c r="DZ3">
+        <v>0</v>
+      </c>
+      <c r="EA3" t="b">
+        <v>1</v>
+      </c>
+      <c r="EB3" t="b">
+        <v>0</v>
+      </c>
+      <c r="EC3" t="b">
+        <v>0</v>
+      </c>
+      <c r="ED3" t="s">
+        <v>178</v>
+      </c>
+      <c r="EE3">
+        <v>98.4</v>
+      </c>
+      <c r="EG3">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="EH3" t="s">
+        <v>179</v>
+      </c>
+      <c r="EI3">
+        <v>12</v>
+      </c>
+      <c r="EJ3" t="s">
+        <v>180</v>
+      </c>
+      <c r="EK3" t="s">
+        <v>181</v>
+      </c>
+      <c r="EL3" t="s">
+        <v>182</v>
+      </c>
+      <c r="EM3" t="s">
+        <v>217</v>
+      </c>
+      <c r="EP3" t="s">
+        <v>218</v>
+      </c>
+      <c r="EQ3">
+        <v>44.5</v>
+      </c>
+      <c r="ER3">
+        <v>25.9</v>
+      </c>
+      <c r="ES3">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="ET3">
+        <v>5.7</v>
+      </c>
+      <c r="EU3">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="EV3">
+        <v>0</v>
+      </c>
+      <c r="EW3">
+        <v>44</v>
+      </c>
+      <c r="EX3" t="s">
+        <v>182</v>
+      </c>
+      <c r="EY3" t="s">
+        <v>217</v>
+      </c>
+      <c r="FB3" t="s">
+        <v>218</v>
+      </c>
+      <c r="FD3" t="s">
+        <v>180</v>
+      </c>
+      <c r="FE3" t="s">
+        <v>181</v>
+      </c>
+      <c r="FJ3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:167" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>28</v>
+      </c>
+      <c r="B4" s="1">
+        <v>43209</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.78230370370370361</v>
+      </c>
+      <c r="D4" t="s">
+        <v>220</v>
+      </c>
+      <c r="E4">
+        <v>3.7</v>
+      </c>
+      <c r="F4">
+        <v>39.961311420000001</v>
+      </c>
+      <c r="G4">
+        <v>-106.21639771</v>
+      </c>
+      <c r="H4">
+        <v>0.7</v>
+      </c>
+      <c r="I4">
+        <v>0.7</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>8129</v>
+      </c>
+      <c r="L4">
+        <v>2.1</v>
+      </c>
+      <c r="M4">
+        <v>2.1</v>
+      </c>
+      <c r="N4">
+        <v>0.5</v>
+      </c>
+      <c r="O4">
+        <v>1.6</v>
+      </c>
+      <c r="P4">
+        <v>0.2</v>
+      </c>
+      <c r="Q4">
+        <v>0.7</v>
+      </c>
+      <c r="R4">
+        <v>-2.7</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>-6</v>
+      </c>
+      <c r="U4">
+        <v>-7.5</v>
+      </c>
+      <c r="V4">
+        <v>-105.8</v>
+      </c>
+      <c r="W4">
+        <v>254.2</v>
+      </c>
+      <c r="X4" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>215</v>
+      </c>
+      <c r="AA4">
+        <v>17</v>
+      </c>
+      <c r="AB4">
+        <v>5</v>
+      </c>
+      <c r="AC4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>171</v>
+      </c>
+      <c r="AF4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>172</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>173</v>
+      </c>
+      <c r="AK4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>174</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>-114.2</v>
+      </c>
+      <c r="BG4">
+        <v>245.8</v>
+      </c>
+      <c r="BH4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BI4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BK4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BL4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BM4" t="b">
+        <v>1</v>
+      </c>
+      <c r="BO4" t="b">
+        <v>1</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>175</v>
+      </c>
+      <c r="BS4">
+        <v>1024</v>
+      </c>
+      <c r="BT4">
+        <v>1024</v>
+      </c>
+      <c r="BU4">
+        <v>1684</v>
+      </c>
+      <c r="BV4">
+        <v>1024</v>
+      </c>
+      <c r="BW4">
+        <v>0</v>
+      </c>
+      <c r="BX4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BY4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BZ4" t="b">
+        <v>0</v>
+      </c>
+      <c r="CA4" t="b">
+        <v>0</v>
+      </c>
+      <c r="CB4" t="b">
+        <v>0</v>
+      </c>
+      <c r="CC4">
+        <v>0</v>
+      </c>
+      <c r="CD4" t="b">
+        <v>0</v>
+      </c>
+      <c r="CE4" t="b">
+        <v>0</v>
+      </c>
+      <c r="CF4" t="b">
+        <v>0</v>
+      </c>
+      <c r="CG4" t="b">
+        <v>0</v>
+      </c>
+      <c r="CH4">
+        <v>95</v>
+      </c>
+      <c r="CL4">
+        <v>12.260999999999999</v>
+      </c>
+      <c r="CM4" t="b">
+        <v>0</v>
+      </c>
+      <c r="CN4">
+        <v>4.2169999999999996</v>
+      </c>
+      <c r="CO4">
+        <v>4.2039999999999997</v>
+      </c>
+      <c r="CP4">
+        <v>4.2009999999999996</v>
+      </c>
+      <c r="CQ4">
+        <v>2.3E-2</v>
+      </c>
+      <c r="CR4" t="b">
+        <v>0</v>
+      </c>
+      <c r="CS4" t="b">
+        <v>0</v>
+      </c>
+      <c r="CX4">
+        <v>0</v>
+      </c>
+      <c r="CY4">
+        <v>0</v>
+      </c>
+      <c r="CZ4">
+        <v>0</v>
+      </c>
+      <c r="DA4">
+        <v>15</v>
+      </c>
+      <c r="DB4">
+        <v>10</v>
+      </c>
+      <c r="DC4">
+        <v>6957</v>
+      </c>
+      <c r="DD4">
+        <v>1783.84</v>
+      </c>
+      <c r="DF4" t="s">
+        <v>176</v>
+      </c>
+      <c r="DG4">
+        <v>0</v>
+      </c>
+      <c r="DH4">
+        <v>30</v>
+      </c>
+      <c r="DI4" t="b">
+        <v>0</v>
+      </c>
+      <c r="DJ4">
+        <v>10</v>
+      </c>
+      <c r="DK4" t="b">
+        <v>1</v>
+      </c>
+      <c r="DM4" t="s">
+        <v>177</v>
+      </c>
+      <c r="DN4">
+        <v>39.961309389999997</v>
+      </c>
+      <c r="DO4">
+        <v>-106.21639906999999</v>
+      </c>
+      <c r="DP4">
+        <v>0.8</v>
+      </c>
+      <c r="DQ4">
+        <v>7938.4</v>
+      </c>
+      <c r="DR4">
+        <v>393.7</v>
+      </c>
+      <c r="DS4" t="b">
+        <v>1</v>
+      </c>
+      <c r="DT4">
+        <v>1</v>
+      </c>
+      <c r="DU4">
+        <v>1</v>
+      </c>
+      <c r="DV4" t="b">
+        <v>0</v>
+      </c>
+      <c r="DW4" t="b">
+        <v>0</v>
+      </c>
+      <c r="DX4" t="b">
+        <v>0</v>
+      </c>
+      <c r="DY4" t="b">
+        <v>0</v>
+      </c>
+      <c r="DZ4">
+        <v>0</v>
+      </c>
+      <c r="EA4" t="b">
+        <v>1</v>
+      </c>
+      <c r="EB4" t="b">
+        <v>0</v>
+      </c>
+      <c r="EC4" t="b">
+        <v>0</v>
+      </c>
+      <c r="ED4" t="s">
+        <v>178</v>
+      </c>
+      <c r="EE4">
+        <v>98.4</v>
+      </c>
+      <c r="EG4">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="EH4" t="s">
+        <v>179</v>
+      </c>
+      <c r="EI4">
+        <v>12</v>
+      </c>
+      <c r="EJ4" t="s">
+        <v>180</v>
+      </c>
+      <c r="EK4" t="s">
+        <v>181</v>
+      </c>
+      <c r="EL4" t="s">
+        <v>182</v>
+      </c>
+      <c r="EM4" t="s">
+        <v>217</v>
+      </c>
+      <c r="EP4" t="s">
+        <v>218</v>
+      </c>
+      <c r="EQ4">
+        <v>44.5</v>
+      </c>
+      <c r="ER4">
+        <v>25.9</v>
+      </c>
+      <c r="ES4">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="ET4">
+        <v>5.7</v>
+      </c>
+      <c r="EU4">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="EV4">
+        <v>0</v>
+      </c>
+      <c r="EW4">
+        <v>44</v>
+      </c>
+      <c r="EX4" t="s">
+        <v>182</v>
+      </c>
+      <c r="EY4" t="s">
+        <v>217</v>
+      </c>
+      <c r="FB4" t="s">
+        <v>218</v>
+      </c>
+      <c r="FD4" t="s">
+        <v>180</v>
+      </c>
+      <c r="FE4" t="s">
+        <v>181</v>
+      </c>
+      <c r="FI4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:167" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O6" t="s">
+        <v>14</v>
+      </c>
+      <c r="P6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R6" t="s">
+        <v>17</v>
+      </c>
+      <c r="S6" t="s">
+        <v>18</v>
+      </c>
+      <c r="T6" t="s">
+        <v>19</v>
+      </c>
+      <c r="U6" t="s">
+        <v>20</v>
+      </c>
+      <c r="V6" t="s">
+        <v>21</v>
+      </c>
+      <c r="W6" t="s">
+        <v>22</v>
+      </c>
+      <c r="X6" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG6" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ6" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK6" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL6" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM6" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN6" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO6" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP6" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ6" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR6" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS6" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT6" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU6" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV6" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW6" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX6" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY6" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ6" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA6" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB6" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC6" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD6" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE6" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF6" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG6" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH6" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI6" t="s">
+        <v>86</v>
+      </c>
+      <c r="CJ6" t="s">
+        <v>87</v>
+      </c>
+      <c r="CK6" t="s">
+        <v>88</v>
+      </c>
+      <c r="CL6" t="s">
+        <v>89</v>
+      </c>
+      <c r="CM6" t="s">
+        <v>90</v>
+      </c>
+      <c r="CN6" t="s">
+        <v>91</v>
+      </c>
+      <c r="CO6" t="s">
+        <v>92</v>
+      </c>
+      <c r="CP6" t="s">
+        <v>93</v>
+      </c>
+      <c r="CQ6" t="s">
+        <v>94</v>
+      </c>
+      <c r="CR6" t="s">
+        <v>95</v>
+      </c>
+      <c r="CS6" t="s">
+        <v>96</v>
+      </c>
+      <c r="CT6" t="s">
+        <v>97</v>
+      </c>
+      <c r="CU6" t="s">
+        <v>98</v>
+      </c>
+      <c r="CV6" t="s">
+        <v>99</v>
+      </c>
+      <c r="CW6" t="s">
+        <v>100</v>
+      </c>
+      <c r="CX6" t="s">
+        <v>101</v>
+      </c>
+      <c r="CY6" t="s">
+        <v>102</v>
+      </c>
+      <c r="CZ6" t="s">
+        <v>103</v>
+      </c>
+      <c r="DA6" t="s">
+        <v>104</v>
+      </c>
+      <c r="DB6" t="s">
+        <v>105</v>
+      </c>
+      <c r="DC6" t="s">
+        <v>106</v>
+      </c>
+      <c r="DD6" t="s">
+        <v>107</v>
+      </c>
+      <c r="DE6" t="s">
+        <v>108</v>
+      </c>
+      <c r="DF6" t="s">
+        <v>109</v>
+      </c>
+      <c r="DG6" t="s">
+        <v>110</v>
+      </c>
+      <c r="DH6" t="s">
+        <v>111</v>
+      </c>
+      <c r="DI6" t="s">
+        <v>112</v>
+      </c>
+      <c r="DJ6" t="s">
+        <v>113</v>
+      </c>
+      <c r="DK6" t="s">
+        <v>114</v>
+      </c>
+      <c r="DL6" t="s">
+        <v>115</v>
+      </c>
+      <c r="DM6" t="s">
+        <v>116</v>
+      </c>
+      <c r="DN6" t="s">
+        <v>117</v>
+      </c>
+      <c r="DO6" t="s">
+        <v>118</v>
+      </c>
+      <c r="DP6" t="s">
+        <v>119</v>
+      </c>
+      <c r="DQ6" t="s">
+        <v>120</v>
+      </c>
+      <c r="DR6" t="s">
+        <v>121</v>
+      </c>
+      <c r="DS6" t="s">
+        <v>122</v>
+      </c>
+      <c r="DT6" t="s">
+        <v>123</v>
+      </c>
+      <c r="DU6" t="s">
+        <v>124</v>
+      </c>
+      <c r="DV6" t="s">
+        <v>125</v>
+      </c>
+      <c r="DW6" t="s">
+        <v>126</v>
+      </c>
+      <c r="DX6" t="s">
+        <v>127</v>
+      </c>
+      <c r="DY6" t="s">
+        <v>128</v>
+      </c>
+      <c r="DZ6" t="s">
+        <v>129</v>
+      </c>
+      <c r="EA6" t="s">
+        <v>130</v>
+      </c>
+      <c r="EB6" t="s">
+        <v>131</v>
+      </c>
+      <c r="EC6" t="s">
+        <v>132</v>
+      </c>
+      <c r="ED6" t="s">
+        <v>133</v>
+      </c>
+      <c r="EE6" t="s">
+        <v>134</v>
+      </c>
+      <c r="EF6" t="s">
+        <v>135</v>
+      </c>
+      <c r="EG6" t="s">
+        <v>136</v>
+      </c>
+      <c r="EH6" t="s">
+        <v>137</v>
+      </c>
+      <c r="EI6" t="s">
+        <v>138</v>
+      </c>
+      <c r="EJ6" t="s">
+        <v>139</v>
+      </c>
+      <c r="EK6" t="s">
+        <v>140</v>
+      </c>
+      <c r="EL6" t="s">
+        <v>141</v>
+      </c>
+      <c r="EM6" t="s">
+        <v>142</v>
+      </c>
+      <c r="EN6" t="s">
+        <v>143</v>
+      </c>
+      <c r="EO6" t="s">
+        <v>144</v>
+      </c>
+      <c r="EP6" t="s">
+        <v>145</v>
+      </c>
+      <c r="EQ6" t="s">
+        <v>146</v>
+      </c>
+      <c r="ER6" t="s">
+        <v>147</v>
+      </c>
+      <c r="ES6" t="s">
+        <v>148</v>
+      </c>
+      <c r="ET6" t="s">
+        <v>149</v>
+      </c>
+      <c r="EU6" t="s">
+        <v>150</v>
+      </c>
+      <c r="EV6" t="s">
+        <v>151</v>
+      </c>
+      <c r="EW6" t="s">
+        <v>152</v>
+      </c>
+      <c r="EX6" t="s">
+        <v>153</v>
+      </c>
+      <c r="EY6" t="s">
+        <v>154</v>
+      </c>
+      <c r="EZ6" t="s">
+        <v>155</v>
+      </c>
+      <c r="FA6" t="s">
+        <v>156</v>
+      </c>
+      <c r="FB6" t="s">
+        <v>157</v>
+      </c>
+      <c r="FC6" t="s">
+        <v>158</v>
+      </c>
+      <c r="FD6" t="s">
+        <v>159</v>
+      </c>
+      <c r="FE6" t="s">
+        <v>160</v>
+      </c>
+      <c r="FF6" t="s">
+        <v>161</v>
+      </c>
+      <c r="FG6" t="s">
+        <v>162</v>
+      </c>
+      <c r="FH6" t="s">
+        <v>163</v>
+      </c>
+      <c r="FI6" t="s">
+        <v>164</v>
+      </c>
+      <c r="FJ6" t="s">
+        <v>165</v>
+      </c>
+      <c r="FK6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="1:167" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1">
+        <v>43209</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.79528402777777785</v>
+      </c>
+      <c r="D7" t="s">
+        <v>225</v>
+      </c>
+      <c r="E7">
+        <v>0.4</v>
+      </c>
+      <c r="F7">
+        <v>39.961309280000002</v>
+      </c>
+      <c r="G7">
+        <v>-106.21639822</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0.3</v>
+      </c>
+      <c r="K7">
+        <v>8128</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>9.9</v>
+      </c>
+      <c r="U7">
+        <v>-0.7</v>
+      </c>
+      <c r="V7">
+        <v>-125.2</v>
+      </c>
+      <c r="W7">
+        <v>234.8</v>
+      </c>
+      <c r="X7" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>216</v>
+      </c>
+      <c r="AA7">
+        <v>19</v>
+      </c>
+      <c r="AB7">
+        <v>5</v>
+      </c>
+      <c r="AC7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>171</v>
+      </c>
+      <c r="AF7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>172</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>173</v>
+      </c>
+      <c r="AK7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ7" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA7" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB7">
+        <v>0</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>174</v>
+      </c>
+      <c r="BD7">
+        <v>0</v>
+      </c>
+      <c r="BE7">
+        <v>0</v>
+      </c>
+      <c r="BF7">
+        <v>-125</v>
+      </c>
+      <c r="BG7">
+        <v>235</v>
+      </c>
+      <c r="BH7" t="b">
+        <v>0</v>
+      </c>
+      <c r="BI7" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ7" t="b">
+        <v>0</v>
+      </c>
+      <c r="BK7" t="b">
+        <v>0</v>
+      </c>
+      <c r="BL7" t="b">
+        <v>0</v>
+      </c>
+      <c r="BM7" t="b">
+        <v>0</v>
+      </c>
+      <c r="BO7" t="b">
+        <v>1</v>
+      </c>
+      <c r="BP7" t="s">
+        <v>226</v>
+      </c>
+      <c r="BS7">
+        <v>1620</v>
+      </c>
+      <c r="BT7">
+        <v>500</v>
+      </c>
+      <c r="BU7">
+        <v>364</v>
+      </c>
+      <c r="BV7">
+        <v>364</v>
+      </c>
+      <c r="BW7">
+        <v>1</v>
+      </c>
+      <c r="BX7" t="b">
+        <v>0</v>
+      </c>
+      <c r="BY7" t="b">
+        <v>0</v>
+      </c>
+      <c r="BZ7" t="b">
+        <v>0</v>
+      </c>
+      <c r="CA7" t="b">
+        <v>0</v>
+      </c>
+      <c r="CB7" t="b">
+        <v>0</v>
+      </c>
+      <c r="CC7">
+        <v>0</v>
+      </c>
+      <c r="CD7" t="b">
+        <v>0</v>
+      </c>
+      <c r="CE7" t="b">
+        <v>0</v>
+      </c>
+      <c r="CF7" t="b">
+        <v>0</v>
+      </c>
+      <c r="CG7" t="b">
+        <v>0</v>
+      </c>
+      <c r="CH7">
+        <v>72</v>
+      </c>
+      <c r="CL7">
+        <v>12.092000000000001</v>
+      </c>
+      <c r="CM7" t="b">
+        <v>1</v>
+      </c>
+      <c r="CN7">
+        <v>4.0309999999999997</v>
+      </c>
+      <c r="CO7">
+        <v>4.0309999999999997</v>
+      </c>
+      <c r="CP7">
+        <v>4.0309999999999997</v>
+      </c>
+      <c r="CR7" t="b">
+        <v>0</v>
+      </c>
+      <c r="CS7" t="b">
+        <v>0</v>
+      </c>
+      <c r="CX7">
+        <v>0</v>
+      </c>
+      <c r="CY7">
+        <v>1</v>
+      </c>
+      <c r="CZ7">
+        <v>0</v>
+      </c>
+      <c r="DA7">
+        <v>15</v>
+      </c>
+      <c r="DB7">
+        <v>10</v>
+      </c>
+      <c r="DC7">
+        <v>4738.5</v>
+      </c>
+      <c r="DD7">
+        <v>1215</v>
+      </c>
+      <c r="DF7" t="s">
+        <v>176</v>
+      </c>
+      <c r="DG7">
+        <v>0</v>
+      </c>
+      <c r="DH7">
+        <v>30</v>
+      </c>
+      <c r="DI7" t="b">
+        <v>0</v>
+      </c>
+      <c r="DJ7">
+        <v>10</v>
+      </c>
+      <c r="DK7" t="b">
+        <v>1</v>
+      </c>
+      <c r="DM7" t="s">
+        <v>177</v>
+      </c>
+      <c r="DN7">
+        <v>39.961315640000002</v>
+      </c>
+      <c r="DO7">
+        <v>-106.21640219</v>
+      </c>
+      <c r="DP7">
+        <v>2.6</v>
+      </c>
+      <c r="DQ7">
+        <v>7950.3</v>
+      </c>
+      <c r="DR7">
+        <v>393.7</v>
+      </c>
+      <c r="DS7" t="b">
+        <v>1</v>
+      </c>
+      <c r="DT7">
+        <v>1</v>
+      </c>
+      <c r="DU7">
+        <v>1</v>
+      </c>
+      <c r="DV7" t="b">
+        <v>0</v>
+      </c>
+      <c r="DW7" t="b">
+        <v>0</v>
+      </c>
+      <c r="DX7" t="b">
+        <v>0</v>
+      </c>
+      <c r="DY7" t="b">
+        <v>0</v>
+      </c>
+      <c r="DZ7">
+        <v>2</v>
+      </c>
+      <c r="EA7" t="b">
+        <v>1</v>
+      </c>
+      <c r="EB7" t="b">
+        <v>0</v>
+      </c>
+      <c r="EC7" t="b">
+        <v>0</v>
+      </c>
+      <c r="ED7" t="s">
+        <v>178</v>
+      </c>
+      <c r="EE7">
+        <v>98.4</v>
+      </c>
+      <c r="EG7">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="EH7" t="s">
+        <v>179</v>
+      </c>
+      <c r="EI7">
+        <v>15</v>
+      </c>
+      <c r="EK7" t="s">
+        <v>227</v>
+      </c>
+      <c r="EQ7">
+        <v>3.8</v>
+      </c>
+      <c r="ER7">
+        <v>0.9</v>
+      </c>
+      <c r="ES7">
+        <v>0</v>
+      </c>
+      <c r="ET7">
+        <v>1.8</v>
+      </c>
+      <c r="EU7">
+        <v>0</v>
+      </c>
+      <c r="EV7">
+        <v>0</v>
+      </c>
+      <c r="EW7">
+        <v>0</v>
+      </c>
+      <c r="EY7" t="s">
+        <v>228</v>
+      </c>
+      <c r="FB7" t="s">
+        <v>218</v>
+      </c>
+      <c r="FD7" t="s">
+        <v>180</v>
+      </c>
+      <c r="FE7" t="s">
+        <v>181</v>
+      </c>
+      <c r="FI7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="8" spans="1:167" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1">
+        <v>43209</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.79529629629629628</v>
+      </c>
+      <c r="D8" t="s">
+        <v>222</v>
+      </c>
+      <c r="E8">
+        <v>1.5</v>
+      </c>
+      <c r="F8">
+        <v>39.961309159999999</v>
+      </c>
+      <c r="G8">
+        <v>-106.21639817000001</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0.3</v>
+      </c>
+      <c r="K8">
+        <v>8128</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>10</v>
+      </c>
+      <c r="U8">
+        <v>-0.8</v>
+      </c>
+      <c r="V8">
+        <v>-125.2</v>
+      </c>
+      <c r="W8">
+        <v>234.8</v>
+      </c>
+      <c r="X8" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>216</v>
+      </c>
+      <c r="AA8">
+        <v>19</v>
+      </c>
+      <c r="AB8">
+        <v>5</v>
+      </c>
+      <c r="AC8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AF8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>172</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>173</v>
+      </c>
+      <c r="AK8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ8" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA8" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB8">
+        <v>0</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>174</v>
+      </c>
+      <c r="BD8">
+        <v>0</v>
+      </c>
+      <c r="BE8">
+        <v>0</v>
+      </c>
+      <c r="BF8">
+        <v>-125.1</v>
+      </c>
+      <c r="BG8">
+        <v>234.9</v>
+      </c>
+      <c r="BH8" t="b">
+        <v>0</v>
+      </c>
+      <c r="BI8" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ8" t="b">
+        <v>0</v>
+      </c>
+      <c r="BK8" t="b">
+        <v>0</v>
+      </c>
+      <c r="BL8" t="b">
+        <v>0</v>
+      </c>
+      <c r="BM8" t="b">
+        <v>0</v>
+      </c>
+      <c r="BO8" t="b">
+        <v>1</v>
+      </c>
+      <c r="BP8" t="s">
+        <v>226</v>
+      </c>
+      <c r="BS8">
+        <v>1024</v>
+      </c>
+      <c r="BT8">
+        <v>1024</v>
+      </c>
+      <c r="BU8">
+        <v>1024</v>
+      </c>
+      <c r="BV8">
+        <v>1024</v>
+      </c>
+      <c r="BW8">
+        <v>1</v>
+      </c>
+      <c r="BX8" t="b">
+        <v>0</v>
+      </c>
+      <c r="BY8" t="b">
+        <v>0</v>
+      </c>
+      <c r="BZ8" t="b">
+        <v>0</v>
+      </c>
+      <c r="CA8" t="b">
+        <v>0</v>
+      </c>
+      <c r="CB8" t="b">
+        <v>0</v>
+      </c>
+      <c r="CC8">
+        <v>0</v>
+      </c>
+      <c r="CD8" t="b">
+        <v>0</v>
+      </c>
+      <c r="CE8" t="b">
+        <v>0</v>
+      </c>
+      <c r="CF8" t="b">
+        <v>0</v>
+      </c>
+      <c r="CG8" t="b">
+        <v>0</v>
+      </c>
+      <c r="CH8">
+        <v>72</v>
+      </c>
+      <c r="CL8">
+        <v>12.09</v>
+      </c>
+      <c r="CM8" t="b">
+        <v>0</v>
+      </c>
+      <c r="CN8">
+        <v>4.0339999999999998</v>
+      </c>
+      <c r="CO8">
+        <v>4.0179999999999998</v>
+      </c>
+      <c r="CP8">
+        <v>4.0129999999999999</v>
+      </c>
+      <c r="CQ8">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="CR8" t="b">
+        <v>0</v>
+      </c>
+      <c r="CS8" t="b">
+        <v>0</v>
+      </c>
+      <c r="CX8">
+        <v>0</v>
+      </c>
+      <c r="CY8">
+        <v>1</v>
+      </c>
+      <c r="CZ8">
+        <v>0</v>
+      </c>
+      <c r="DA8">
+        <v>15</v>
+      </c>
+      <c r="DB8">
+        <v>10</v>
+      </c>
+      <c r="DC8">
+        <v>4816.8999999999996</v>
+      </c>
+      <c r="DD8">
+        <v>1235.0899999999999</v>
+      </c>
+      <c r="DF8" t="s">
+        <v>176</v>
+      </c>
+      <c r="DG8">
+        <v>0</v>
+      </c>
+      <c r="DH8">
+        <v>30</v>
+      </c>
+      <c r="DI8" t="b">
+        <v>0</v>
+      </c>
+      <c r="DJ8">
+        <v>10</v>
+      </c>
+      <c r="DK8" t="b">
+        <v>1</v>
+      </c>
+      <c r="DM8" t="s">
+        <v>177</v>
+      </c>
+      <c r="DN8">
+        <v>39.961315640000002</v>
+      </c>
+      <c r="DO8">
+        <v>-106.21640219</v>
+      </c>
+      <c r="DP8">
+        <v>2.6</v>
+      </c>
+      <c r="DQ8">
+        <v>7950.3</v>
+      </c>
+      <c r="DR8">
+        <v>393.7</v>
+      </c>
+      <c r="DS8" t="b">
+        <v>1</v>
+      </c>
+      <c r="DT8">
+        <v>1</v>
+      </c>
+      <c r="DU8">
+        <v>1</v>
+      </c>
+      <c r="DV8" t="b">
+        <v>0</v>
+      </c>
+      <c r="DW8" t="b">
+        <v>0</v>
+      </c>
+      <c r="DX8" t="b">
+        <v>0</v>
+      </c>
+      <c r="DY8" t="b">
+        <v>0</v>
+      </c>
+      <c r="DZ8">
+        <v>2</v>
+      </c>
+      <c r="EA8" t="b">
+        <v>1</v>
+      </c>
+      <c r="EB8" t="b">
+        <v>0</v>
+      </c>
+      <c r="EC8" t="b">
+        <v>0</v>
+      </c>
+      <c r="ED8" t="s">
+        <v>178</v>
+      </c>
+      <c r="EE8">
+        <v>98.4</v>
+      </c>
+      <c r="EG8">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="EH8" t="s">
+        <v>179</v>
+      </c>
+      <c r="EI8">
+        <v>15</v>
+      </c>
+      <c r="EK8" t="s">
+        <v>227</v>
+      </c>
+      <c r="EQ8">
+        <v>3.8</v>
+      </c>
+      <c r="ER8">
+        <v>0.9</v>
+      </c>
+      <c r="ES8">
+        <v>0</v>
+      </c>
+      <c r="ET8">
+        <v>1.8</v>
+      </c>
+      <c r="EU8">
+        <v>0</v>
+      </c>
+      <c r="EV8">
+        <v>0</v>
+      </c>
+      <c r="EW8">
+        <v>0</v>
+      </c>
+      <c r="EY8" t="s">
+        <v>228</v>
+      </c>
+      <c r="FB8" t="s">
+        <v>218</v>
+      </c>
+      <c r="FD8" t="s">
+        <v>180</v>
+      </c>
+      <c r="FE8" t="s">
+        <v>181</v>
+      </c>
+      <c r="FJ8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="10" spans="1:167" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10" t="s">
+        <v>11</v>
+      </c>
+      <c r="M10" t="s">
+        <v>12</v>
+      </c>
+      <c r="N10" t="s">
+        <v>13</v>
+      </c>
+      <c r="O10" t="s">
+        <v>14</v>
+      </c>
+      <c r="P10" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>16</v>
+      </c>
+      <c r="R10" t="s">
+        <v>17</v>
+      </c>
+      <c r="S10" t="s">
+        <v>18</v>
+      </c>
+      <c r="T10" t="s">
+        <v>19</v>
+      </c>
+      <c r="U10" t="s">
+        <v>20</v>
+      </c>
+      <c r="V10" t="s">
+        <v>21</v>
+      </c>
+      <c r="W10" t="s">
+        <v>22</v>
+      </c>
+      <c r="X10" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ10" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC10" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD10" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE10" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF10" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG10" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH10" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI10" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ10" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK10" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL10" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM10" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN10" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO10" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP10" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ10" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR10" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS10" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT10" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU10" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV10" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW10" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX10" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY10" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ10" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA10" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB10" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC10" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD10" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE10" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF10" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG10" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH10" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI10" t="s">
+        <v>86</v>
+      </c>
+      <c r="CJ10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CK10" t="s">
+        <v>88</v>
+      </c>
+      <c r="CL10" t="s">
+        <v>89</v>
+      </c>
+      <c r="CM10" t="s">
+        <v>90</v>
+      </c>
+      <c r="CN10" t="s">
+        <v>91</v>
+      </c>
+      <c r="CO10" t="s">
+        <v>92</v>
+      </c>
+      <c r="CP10" t="s">
+        <v>93</v>
+      </c>
+      <c r="CQ10" t="s">
+        <v>94</v>
+      </c>
+      <c r="CR10" t="s">
+        <v>95</v>
+      </c>
+      <c r="CS10" t="s">
+        <v>96</v>
+      </c>
+      <c r="CT10" t="s">
+        <v>97</v>
+      </c>
+      <c r="CU10" t="s">
+        <v>98</v>
+      </c>
+      <c r="CV10" t="s">
+        <v>99</v>
+      </c>
+      <c r="CW10" t="s">
+        <v>100</v>
+      </c>
+      <c r="CX10" t="s">
+        <v>101</v>
+      </c>
+      <c r="CY10" t="s">
+        <v>102</v>
+      </c>
+      <c r="CZ10" t="s">
+        <v>103</v>
+      </c>
+      <c r="DA10" t="s">
+        <v>104</v>
+      </c>
+      <c r="DB10" t="s">
+        <v>105</v>
+      </c>
+      <c r="DC10" t="s">
+        <v>106</v>
+      </c>
+      <c r="DD10" t="s">
+        <v>107</v>
+      </c>
+      <c r="DE10" t="s">
+        <v>108</v>
+      </c>
+      <c r="DF10" t="s">
+        <v>109</v>
+      </c>
+      <c r="DG10" t="s">
+        <v>110</v>
+      </c>
+      <c r="DH10" t="s">
+        <v>111</v>
+      </c>
+      <c r="DI10" t="s">
+        <v>112</v>
+      </c>
+      <c r="DJ10" t="s">
+        <v>113</v>
+      </c>
+      <c r="DK10" t="s">
+        <v>114</v>
+      </c>
+      <c r="DL10" t="s">
+        <v>115</v>
+      </c>
+      <c r="DM10" t="s">
+        <v>116</v>
+      </c>
+      <c r="DN10" t="s">
+        <v>117</v>
+      </c>
+      <c r="DO10" t="s">
+        <v>118</v>
+      </c>
+      <c r="DP10" t="s">
+        <v>119</v>
+      </c>
+      <c r="DQ10" t="s">
+        <v>120</v>
+      </c>
+      <c r="DR10" t="s">
+        <v>121</v>
+      </c>
+      <c r="DS10" t="s">
+        <v>122</v>
+      </c>
+      <c r="DT10" t="s">
+        <v>123</v>
+      </c>
+      <c r="DU10" t="s">
+        <v>124</v>
+      </c>
+      <c r="DV10" t="s">
+        <v>125</v>
+      </c>
+      <c r="DW10" t="s">
+        <v>126</v>
+      </c>
+      <c r="DX10" t="s">
+        <v>127</v>
+      </c>
+      <c r="DY10" t="s">
+        <v>128</v>
+      </c>
+      <c r="DZ10" t="s">
+        <v>129</v>
+      </c>
+      <c r="EA10" t="s">
+        <v>130</v>
+      </c>
+      <c r="EB10" t="s">
+        <v>131</v>
+      </c>
+      <c r="EC10" t="s">
+        <v>132</v>
+      </c>
+      <c r="ED10" t="s">
+        <v>133</v>
+      </c>
+      <c r="EE10" t="s">
+        <v>134</v>
+      </c>
+      <c r="EF10" t="s">
+        <v>135</v>
+      </c>
+      <c r="EG10" t="s">
+        <v>136</v>
+      </c>
+      <c r="EH10" t="s">
+        <v>137</v>
+      </c>
+      <c r="EI10" t="s">
+        <v>138</v>
+      </c>
+      <c r="EJ10" t="s">
+        <v>139</v>
+      </c>
+      <c r="EK10" t="s">
+        <v>140</v>
+      </c>
+      <c r="EL10" t="s">
+        <v>141</v>
+      </c>
+      <c r="EM10" t="s">
+        <v>142</v>
+      </c>
+      <c r="EN10" t="s">
+        <v>143</v>
+      </c>
+      <c r="EO10" t="s">
+        <v>144</v>
+      </c>
+      <c r="EP10" t="s">
+        <v>145</v>
+      </c>
+      <c r="EQ10" t="s">
+        <v>146</v>
+      </c>
+      <c r="ER10" t="s">
+        <v>147</v>
+      </c>
+      <c r="ES10" t="s">
+        <v>148</v>
+      </c>
+      <c r="ET10" t="s">
+        <v>149</v>
+      </c>
+      <c r="EU10" t="s">
+        <v>150</v>
+      </c>
+      <c r="EV10" t="s">
+        <v>151</v>
+      </c>
+      <c r="EW10" t="s">
+        <v>152</v>
+      </c>
+      <c r="EX10" t="s">
+        <v>153</v>
+      </c>
+      <c r="EY10" t="s">
+        <v>154</v>
+      </c>
+      <c r="EZ10" t="s">
+        <v>155</v>
+      </c>
+      <c r="FA10" t="s">
+        <v>156</v>
+      </c>
+      <c r="FB10" t="s">
+        <v>157</v>
+      </c>
+      <c r="FC10" t="s">
+        <v>158</v>
+      </c>
+      <c r="FD10" t="s">
+        <v>159</v>
+      </c>
+      <c r="FE10" t="s">
+        <v>160</v>
+      </c>
+      <c r="FF10" t="s">
+        <v>161</v>
+      </c>
+      <c r="FG10" t="s">
+        <v>162</v>
+      </c>
+      <c r="FH10" t="s">
+        <v>163</v>
+      </c>
+      <c r="FI10" t="s">
+        <v>164</v>
+      </c>
+      <c r="FJ10" t="s">
+        <v>165</v>
+      </c>
+      <c r="FK10" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:167" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1">
+        <v>43209</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.79548090277777783</v>
+      </c>
+      <c r="D11" t="s">
+        <v>230</v>
+      </c>
+      <c r="E11">
+        <v>3.9</v>
+      </c>
+      <c r="F11">
+        <v>39.961265500000003</v>
+      </c>
+      <c r="G11">
+        <v>-106.21651636</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0.3</v>
+      </c>
+      <c r="K11">
+        <v>8128</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>7.2</v>
+      </c>
+      <c r="U11">
+        <v>1.4</v>
+      </c>
+      <c r="V11">
+        <v>-106.3</v>
+      </c>
+      <c r="W11">
+        <v>253.7</v>
+      </c>
+      <c r="X11" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>216</v>
+      </c>
+      <c r="AA11">
+        <v>19</v>
+      </c>
+      <c r="AB11">
+        <v>5</v>
+      </c>
+      <c r="AC11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>171</v>
+      </c>
+      <c r="AF11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>172</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>173</v>
+      </c>
+      <c r="AK11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ11" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA11" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB11">
+        <v>0</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>174</v>
+      </c>
+      <c r="BD11">
+        <v>0</v>
+      </c>
+      <c r="BE11">
+        <v>0</v>
+      </c>
+      <c r="BF11">
+        <v>-106.5</v>
+      </c>
+      <c r="BG11">
+        <v>253.5</v>
+      </c>
+      <c r="BH11" t="b">
+        <v>0</v>
+      </c>
+      <c r="BI11" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ11" t="b">
+        <v>0</v>
+      </c>
+      <c r="BK11" t="b">
+        <v>0</v>
+      </c>
+      <c r="BL11" t="b">
+        <v>0</v>
+      </c>
+      <c r="BM11" t="b">
+        <v>0</v>
+      </c>
+      <c r="BO11" t="b">
+        <v>0</v>
+      </c>
+      <c r="BP11" t="s">
+        <v>175</v>
+      </c>
+      <c r="BS11">
+        <v>1024</v>
+      </c>
+      <c r="BT11">
+        <v>1024</v>
+      </c>
+      <c r="BU11">
+        <v>1024</v>
+      </c>
+      <c r="BV11">
+        <v>1024</v>
+      </c>
+      <c r="BW11">
+        <v>1</v>
+      </c>
+      <c r="BX11" t="b">
+        <v>0</v>
+      </c>
+      <c r="BY11" t="b">
+        <v>0</v>
+      </c>
+      <c r="BZ11" t="b">
+        <v>0</v>
+      </c>
+      <c r="CA11" t="b">
+        <v>0</v>
+      </c>
+      <c r="CB11" t="b">
+        <v>0</v>
+      </c>
+      <c r="CC11">
+        <v>0</v>
+      </c>
+      <c r="CD11" t="b">
+        <v>0</v>
+      </c>
+      <c r="CE11" t="b">
+        <v>0</v>
+      </c>
+      <c r="CF11" t="b">
+        <v>0</v>
+      </c>
+      <c r="CG11" t="b">
+        <v>0</v>
+      </c>
+      <c r="CH11">
+        <v>72</v>
+      </c>
+      <c r="CL11">
+        <v>12.114000000000001</v>
+      </c>
+      <c r="CM11" t="b">
+        <v>1</v>
+      </c>
+      <c r="CN11">
+        <v>4.0380000000000003</v>
+      </c>
+      <c r="CO11">
+        <v>4.0380000000000003</v>
+      </c>
+      <c r="CP11">
+        <v>4.0380000000000003</v>
+      </c>
+      <c r="CR11" t="b">
+        <v>0</v>
+      </c>
+      <c r="CS11" t="b">
+        <v>0</v>
+      </c>
+      <c r="CX11">
+        <v>0</v>
+      </c>
+      <c r="CY11">
+        <v>23</v>
+      </c>
+      <c r="CZ11">
+        <v>0</v>
+      </c>
+      <c r="DA11">
+        <v>17</v>
+      </c>
+      <c r="DB11">
+        <v>10</v>
+      </c>
+      <c r="DC11">
+        <v>5506.8</v>
+      </c>
+      <c r="DD11">
+        <v>1412</v>
+      </c>
+      <c r="DF11" t="s">
+        <v>176</v>
+      </c>
+      <c r="DG11">
+        <v>0</v>
+      </c>
+      <c r="DH11">
+        <v>30</v>
+      </c>
+      <c r="DI11" t="b">
+        <v>0</v>
+      </c>
+      <c r="DJ11">
+        <v>10</v>
+      </c>
+      <c r="DK11" t="b">
+        <v>1</v>
+      </c>
+      <c r="DM11" t="s">
+        <v>177</v>
+      </c>
+      <c r="DN11">
+        <v>39.961309350000001</v>
+      </c>
+      <c r="DO11">
+        <v>-106.21639815</v>
+      </c>
+      <c r="DP11">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="DQ11">
+        <v>7949.9</v>
+      </c>
+      <c r="DR11">
+        <v>393.7</v>
+      </c>
+      <c r="DS11" t="b">
+        <v>1</v>
+      </c>
+      <c r="DT11">
+        <v>1</v>
+      </c>
+      <c r="DU11">
+        <v>1</v>
+      </c>
+      <c r="DV11" t="b">
+        <v>0</v>
+      </c>
+      <c r="DW11" t="b">
+        <v>0</v>
+      </c>
+      <c r="DX11" t="b">
+        <v>0</v>
+      </c>
+      <c r="DY11" t="b">
+        <v>0</v>
+      </c>
+      <c r="DZ11">
+        <v>2</v>
+      </c>
+      <c r="EA11" t="b">
+        <v>1</v>
+      </c>
+      <c r="EB11" t="b">
+        <v>0</v>
+      </c>
+      <c r="EC11" t="b">
+        <v>0</v>
+      </c>
+      <c r="ED11" t="s">
+        <v>178</v>
+      </c>
+      <c r="EE11">
+        <v>98.4</v>
+      </c>
+      <c r="EG11">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="EH11" t="s">
+        <v>179</v>
+      </c>
+      <c r="EI11">
+        <v>15</v>
+      </c>
+      <c r="EK11" t="s">
+        <v>227</v>
+      </c>
+      <c r="EQ11">
+        <v>471.3</v>
+      </c>
+      <c r="ER11">
+        <v>9961.2999999999993</v>
+      </c>
+      <c r="ES11">
+        <v>133.9</v>
+      </c>
+      <c r="ET11">
+        <v>43.4</v>
+      </c>
+      <c r="EU11">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="EV11">
+        <v>0</v>
+      </c>
+      <c r="EW11">
+        <v>264</v>
+      </c>
+      <c r="EY11" t="s">
+        <v>228</v>
+      </c>
+      <c r="FB11" t="s">
+        <v>218</v>
+      </c>
+      <c r="FD11" t="s">
+        <v>180</v>
+      </c>
+      <c r="FE11" t="s">
+        <v>181</v>
+      </c>
+      <c r="FI11" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="12" spans="1:167" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>17</v>
+      </c>
+      <c r="B12" s="1">
+        <v>43209</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.79549918981481482</v>
+      </c>
+      <c r="D12" t="s">
+        <v>233</v>
+      </c>
+      <c r="E12">
+        <v>5.5</v>
+      </c>
+      <c r="F12">
+        <v>39.961266129999998</v>
+      </c>
+      <c r="G12">
+        <v>-106.21651639</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0.3</v>
+      </c>
+      <c r="K12">
+        <v>8128</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>7.2</v>
+      </c>
+      <c r="U12">
+        <v>1.5</v>
+      </c>
+      <c r="V12">
+        <v>-106.4</v>
+      </c>
+      <c r="W12">
+        <v>253.6</v>
+      </c>
+      <c r="X12" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>216</v>
+      </c>
+      <c r="AA12">
+        <v>19</v>
+      </c>
+      <c r="AB12">
+        <v>5</v>
+      </c>
+      <c r="AC12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>171</v>
+      </c>
+      <c r="AF12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>172</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>173</v>
+      </c>
+      <c r="AK12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ12" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA12" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB12">
+        <v>0</v>
+      </c>
+      <c r="BC12" t="s">
+        <v>174</v>
+      </c>
+      <c r="BD12">
+        <v>0</v>
+      </c>
+      <c r="BE12">
+        <v>0</v>
+      </c>
+      <c r="BF12">
+        <v>-106.5</v>
+      </c>
+      <c r="BG12">
+        <v>253.5</v>
+      </c>
+      <c r="BH12" t="b">
+        <v>0</v>
+      </c>
+      <c r="BI12" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ12" t="b">
+        <v>0</v>
+      </c>
+      <c r="BK12" t="b">
+        <v>0</v>
+      </c>
+      <c r="BL12" t="b">
+        <v>0</v>
+      </c>
+      <c r="BM12" t="b">
+        <v>0</v>
+      </c>
+      <c r="BO12" t="b">
+        <v>0</v>
+      </c>
+      <c r="BP12" t="s">
+        <v>175</v>
+      </c>
+      <c r="BS12">
+        <v>1024</v>
+      </c>
+      <c r="BT12">
+        <v>1024</v>
+      </c>
+      <c r="BU12">
+        <v>1024</v>
+      </c>
+      <c r="BV12">
+        <v>1024</v>
+      </c>
+      <c r="BW12">
+        <v>1</v>
+      </c>
+      <c r="BX12" t="b">
+        <v>0</v>
+      </c>
+      <c r="BY12" t="b">
+        <v>0</v>
+      </c>
+      <c r="BZ12" t="b">
+        <v>0</v>
+      </c>
+      <c r="CA12" t="b">
+        <v>0</v>
+      </c>
+      <c r="CB12" t="b">
+        <v>0</v>
+      </c>
+      <c r="CC12">
+        <v>0</v>
+      </c>
+      <c r="CD12" t="b">
+        <v>0</v>
+      </c>
+      <c r="CE12" t="b">
+        <v>0</v>
+      </c>
+      <c r="CF12" t="b">
+        <v>0</v>
+      </c>
+      <c r="CG12" t="b">
+        <v>0</v>
+      </c>
+      <c r="CH12">
+        <v>71</v>
+      </c>
+      <c r="CL12">
+        <v>12.034000000000001</v>
+      </c>
+      <c r="CM12" t="b">
+        <v>0</v>
+      </c>
+      <c r="CN12">
+        <v>4.024</v>
+      </c>
+      <c r="CO12">
+        <v>4.0069999999999997</v>
+      </c>
+      <c r="CP12">
+        <v>4.0030000000000001</v>
+      </c>
+      <c r="CQ12">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="CR12" t="b">
+        <v>0</v>
+      </c>
+      <c r="CS12" t="b">
+        <v>0</v>
+      </c>
+      <c r="CX12">
+        <v>0</v>
+      </c>
+      <c r="CY12">
+        <v>23</v>
+      </c>
+      <c r="CZ12">
+        <v>0</v>
+      </c>
+      <c r="DA12">
+        <v>17</v>
+      </c>
+      <c r="DB12">
+        <v>10</v>
+      </c>
+      <c r="DC12">
+        <v>5382.2</v>
+      </c>
+      <c r="DD12">
+        <v>1380.05</v>
+      </c>
+      <c r="DF12" t="s">
+        <v>176</v>
+      </c>
+      <c r="DG12">
+        <v>0</v>
+      </c>
+      <c r="DH12">
+        <v>30</v>
+      </c>
+      <c r="DI12" t="b">
+        <v>0</v>
+      </c>
+      <c r="DJ12">
+        <v>10</v>
+      </c>
+      <c r="DK12" t="b">
+        <v>1</v>
+      </c>
+      <c r="DM12" t="s">
+        <v>177</v>
+      </c>
+      <c r="DN12">
+        <v>39.961309350000001</v>
+      </c>
+      <c r="DO12">
+        <v>-106.21639815</v>
+      </c>
+      <c r="DP12">
+        <v>36.6</v>
+      </c>
+      <c r="DQ12">
+        <v>7949.9</v>
+      </c>
+      <c r="DR12">
+        <v>393.7</v>
+      </c>
+      <c r="DS12" t="b">
+        <v>1</v>
+      </c>
+      <c r="DT12">
+        <v>1</v>
+      </c>
+      <c r="DU12">
+        <v>1</v>
+      </c>
+      <c r="DV12" t="b">
+        <v>0</v>
+      </c>
+      <c r="DW12" t="b">
+        <v>0</v>
+      </c>
+      <c r="DX12" t="b">
+        <v>0</v>
+      </c>
+      <c r="DY12" t="b">
+        <v>0</v>
+      </c>
+      <c r="DZ12">
+        <v>2</v>
+      </c>
+      <c r="EA12" t="b">
+        <v>1</v>
+      </c>
+      <c r="EB12" t="b">
+        <v>0</v>
+      </c>
+      <c r="EC12" t="b">
+        <v>0</v>
+      </c>
+      <c r="ED12" t="s">
+        <v>178</v>
+      </c>
+      <c r="EE12">
+        <v>98.4</v>
+      </c>
+      <c r="EG12">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="EH12" t="s">
+        <v>179</v>
+      </c>
+      <c r="EI12">
+        <v>15</v>
+      </c>
+      <c r="EK12" t="s">
+        <v>227</v>
+      </c>
+      <c r="EQ12">
+        <v>471.3</v>
+      </c>
+      <c r="ER12">
+        <v>9961.2999999999993</v>
+      </c>
+      <c r="ES12">
+        <v>133.9</v>
+      </c>
+      <c r="ET12">
+        <v>43.4</v>
+      </c>
+      <c r="EU12">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="EV12">
+        <v>0</v>
+      </c>
+      <c r="EW12">
+        <v>264</v>
+      </c>
+      <c r="EY12" t="s">
+        <v>228</v>
+      </c>
+      <c r="FB12" t="s">
+        <v>218</v>
+      </c>
+      <c r="FD12" t="s">
+        <v>180</v>
+      </c>
+      <c r="FE12" t="s">
+        <v>181</v>
+      </c>
+      <c r="FJ12" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="13" spans="1:167" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>31</v>
+      </c>
+      <c r="B13" s="1">
+        <v>43209</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.79551620370370368</v>
+      </c>
+      <c r="D13" t="s">
+        <v>231</v>
+      </c>
+      <c r="E13">
+        <v>6.9</v>
+      </c>
+      <c r="F13">
+        <v>39.96126658</v>
+      </c>
+      <c r="G13">
+        <v>-106.21651654999999</v>
+      </c>
+      <c r="H13">
+        <v>0.3</v>
+      </c>
+      <c r="I13">
+        <v>0.3</v>
+      </c>
+      <c r="J13">
+        <v>0.7</v>
+      </c>
+      <c r="K13">
+        <v>8128</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N13">
+        <v>0.7</v>
+      </c>
+      <c r="O13">
+        <v>0.7</v>
+      </c>
+      <c r="P13">
+        <v>0.2</v>
+      </c>
+      <c r="Q13">
+        <v>0.2</v>
+      </c>
+      <c r="R13">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="U13">
+        <v>-3.3</v>
+      </c>
+      <c r="V13">
+        <v>-109.9</v>
+      </c>
+      <c r="W13">
+        <v>250.1</v>
+      </c>
+      <c r="X13" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>215</v>
+      </c>
+      <c r="AA13">
+        <v>19</v>
+      </c>
+      <c r="AB13">
+        <v>5</v>
+      </c>
+      <c r="AC13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>171</v>
+      </c>
+      <c r="AF13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>172</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>173</v>
+      </c>
+      <c r="AK13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ13" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA13" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB13">
+        <v>0</v>
+      </c>
+      <c r="BC13" t="s">
+        <v>174</v>
+      </c>
+      <c r="BD13">
+        <v>0</v>
+      </c>
+      <c r="BE13">
+        <v>0</v>
+      </c>
+      <c r="BF13">
+        <v>-107.4</v>
+      </c>
+      <c r="BG13">
+        <v>252.6</v>
+      </c>
+      <c r="BH13" t="b">
+        <v>0</v>
+      </c>
+      <c r="BI13" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ13" t="b">
+        <v>0</v>
+      </c>
+      <c r="BK13" t="b">
+        <v>0</v>
+      </c>
+      <c r="BL13" t="b">
+        <v>0</v>
+      </c>
+      <c r="BM13" t="b">
+        <v>0</v>
+      </c>
+      <c r="BO13" t="b">
+        <v>0</v>
+      </c>
+      <c r="BP13" t="s">
+        <v>175</v>
+      </c>
+      <c r="BS13">
+        <v>1024</v>
+      </c>
+      <c r="BT13">
+        <v>1024</v>
+      </c>
+      <c r="BU13">
+        <v>1684</v>
+      </c>
+      <c r="BV13">
+        <v>1024</v>
+      </c>
+      <c r="BW13">
+        <v>1</v>
+      </c>
+      <c r="BX13" t="b">
+        <v>0</v>
+      </c>
+      <c r="BY13" t="b">
+        <v>0</v>
+      </c>
+      <c r="BZ13" t="b">
+        <v>0</v>
+      </c>
+      <c r="CA13" t="b">
+        <v>0</v>
+      </c>
+      <c r="CB13" t="b">
+        <v>0</v>
+      </c>
+      <c r="CC13">
+        <v>0</v>
+      </c>
+      <c r="CD13" t="b">
+        <v>0</v>
+      </c>
+      <c r="CE13" t="b">
+        <v>0</v>
+      </c>
+      <c r="CF13" t="b">
+        <v>0</v>
+      </c>
+      <c r="CG13" t="b">
+        <v>0</v>
+      </c>
+      <c r="CH13">
+        <v>71</v>
+      </c>
+      <c r="CL13">
+        <v>11.997</v>
+      </c>
+      <c r="CM13" t="b">
+        <v>0</v>
+      </c>
+      <c r="CN13">
+        <v>4.032</v>
+      </c>
+      <c r="CO13">
+        <v>4.0170000000000003</v>
+      </c>
+      <c r="CP13">
+        <v>4.0110000000000001</v>
+      </c>
+      <c r="CQ13">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="CR13" t="b">
+        <v>0</v>
+      </c>
+      <c r="CS13" t="b">
+        <v>0</v>
+      </c>
+      <c r="CX13">
+        <v>0</v>
+      </c>
+      <c r="CY13">
+        <v>0</v>
+      </c>
+      <c r="CZ13">
+        <v>0</v>
+      </c>
+      <c r="DA13">
+        <v>15</v>
+      </c>
+      <c r="DB13">
+        <v>10</v>
+      </c>
+      <c r="DC13">
+        <v>6154.9</v>
+      </c>
+      <c r="DD13">
+        <v>1578.18</v>
+      </c>
+      <c r="DF13" t="s">
+        <v>176</v>
+      </c>
+      <c r="DG13">
+        <v>0</v>
+      </c>
+      <c r="DH13">
+        <v>30</v>
+      </c>
+      <c r="DI13" t="b">
+        <v>0</v>
+      </c>
+      <c r="DJ13">
+        <v>10</v>
+      </c>
+      <c r="DK13" t="b">
+        <v>1</v>
+      </c>
+      <c r="DM13" t="s">
+        <v>177</v>
+      </c>
+      <c r="DN13">
+        <v>39.961265769999997</v>
+      </c>
+      <c r="DO13">
+        <v>-106.21651670999999</v>
+      </c>
+      <c r="DP13">
+        <v>0.3</v>
+      </c>
+      <c r="DQ13">
+        <v>7949.9</v>
+      </c>
+      <c r="DR13">
+        <v>393.7</v>
+      </c>
+      <c r="DS13" t="b">
+        <v>1</v>
+      </c>
+      <c r="DT13">
+        <v>1</v>
+      </c>
+      <c r="DU13">
+        <v>1</v>
+      </c>
+      <c r="DV13" t="b">
+        <v>0</v>
+      </c>
+      <c r="DW13" t="b">
+        <v>0</v>
+      </c>
+      <c r="DX13" t="b">
+        <v>0</v>
+      </c>
+      <c r="DY13" t="b">
+        <v>0</v>
+      </c>
+      <c r="DZ13">
+        <v>2</v>
+      </c>
+      <c r="EA13" t="b">
+        <v>1</v>
+      </c>
+      <c r="EB13" t="b">
+        <v>0</v>
+      </c>
+      <c r="EC13" t="b">
+        <v>0</v>
+      </c>
+      <c r="ED13" t="s">
+        <v>178</v>
+      </c>
+      <c r="EE13">
+        <v>98.4</v>
+      </c>
+      <c r="EG13">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="EH13" t="s">
+        <v>179</v>
+      </c>
+      <c r="EI13">
+        <v>15</v>
+      </c>
+      <c r="EK13" t="s">
+        <v>227</v>
+      </c>
+      <c r="EQ13">
+        <v>471.3</v>
+      </c>
+      <c r="ER13">
+        <v>9961.2999999999993</v>
+      </c>
+      <c r="ES13">
+        <v>133.9</v>
+      </c>
+      <c r="ET13">
+        <v>43.4</v>
+      </c>
+      <c r="EU13">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="EV13">
+        <v>0</v>
+      </c>
+      <c r="EW13">
+        <v>264</v>
+      </c>
+      <c r="EY13" t="s">
+        <v>228</v>
+      </c>
+      <c r="FB13" t="s">
+        <v>218</v>
+      </c>
+      <c r="FD13" t="s">
+        <v>180</v>
+      </c>
+      <c r="FE13" t="s">
+        <v>181</v>
+      </c>
+      <c r="FI13" t="s">
+        <v>188</v>
+      </c>
+      <c r="FJ13" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="14" spans="1:167" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>674</v>
+      </c>
+      <c r="B14" s="1">
+        <v>43209</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.79630277777777769</v>
+      </c>
+      <c r="D14" t="s">
+        <v>236</v>
+      </c>
+      <c r="E14">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="F14">
+        <v>39.960361779999999</v>
+      </c>
+      <c r="G14">
+        <v>-106.21662479</v>
+      </c>
+      <c r="H14">
+        <v>88.9</v>
+      </c>
+      <c r="I14">
+        <v>94.2</v>
+      </c>
+      <c r="J14">
+        <v>23.3</v>
+      </c>
+      <c r="K14">
+        <v>8217</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>24</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0.7</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0.2</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>1.3</v>
+      </c>
+      <c r="T14">
+        <v>-4.2</v>
+      </c>
+      <c r="U14">
+        <v>6.5</v>
+      </c>
+      <c r="V14">
+        <v>-175.2</v>
+      </c>
+      <c r="W14">
+        <v>184.8</v>
+      </c>
+      <c r="X14" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>215</v>
+      </c>
+      <c r="AA14">
+        <v>19</v>
+      </c>
+      <c r="AB14">
+        <v>5</v>
+      </c>
+      <c r="AC14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>171</v>
+      </c>
+      <c r="AF14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>172</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>173</v>
+      </c>
+      <c r="AK14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ14" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA14" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB14">
+        <v>0</v>
+      </c>
+      <c r="BC14" t="s">
+        <v>174</v>
+      </c>
+      <c r="BD14">
+        <v>-17.899999999999999</v>
+      </c>
+      <c r="BE14">
+        <v>0</v>
+      </c>
+      <c r="BF14">
+        <v>-175</v>
+      </c>
+      <c r="BG14">
+        <v>185</v>
+      </c>
+      <c r="BH14" t="b">
+        <v>0</v>
+      </c>
+      <c r="BI14" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ14" t="b">
+        <v>0</v>
+      </c>
+      <c r="BK14" t="b">
+        <v>0</v>
+      </c>
+      <c r="BL14" t="b">
+        <v>0</v>
+      </c>
+      <c r="BM14" t="b">
+        <v>0</v>
+      </c>
+      <c r="BO14" t="b">
+        <v>0</v>
+      </c>
+      <c r="BP14" t="s">
+        <v>175</v>
+      </c>
+      <c r="BS14">
+        <v>1024</v>
+      </c>
+      <c r="BT14">
+        <v>1024</v>
+      </c>
+      <c r="BU14">
+        <v>1024</v>
+      </c>
+      <c r="BV14">
+        <v>1024</v>
+      </c>
+      <c r="BW14">
+        <v>0</v>
+      </c>
+      <c r="BX14" t="b">
+        <v>0</v>
+      </c>
+      <c r="BY14" t="b">
+        <v>0</v>
+      </c>
+      <c r="BZ14" t="b">
+        <v>0</v>
+      </c>
+      <c r="CA14" t="b">
+        <v>0</v>
+      </c>
+      <c r="CB14" t="b">
+        <v>0</v>
+      </c>
+      <c r="CC14">
+        <v>0</v>
+      </c>
+      <c r="CD14" t="b">
+        <v>0</v>
+      </c>
+      <c r="CE14" t="b">
+        <v>0</v>
+      </c>
+      <c r="CF14" t="b">
+        <v>0</v>
+      </c>
+      <c r="CG14" t="b">
+        <v>0</v>
+      </c>
+      <c r="CH14">
+        <v>65</v>
+      </c>
+      <c r="CL14">
+        <v>11.635</v>
+      </c>
+      <c r="CM14" t="b">
+        <v>0</v>
+      </c>
+      <c r="CN14">
+        <v>3.899</v>
+      </c>
+      <c r="CO14">
+        <v>3.8740000000000001</v>
+      </c>
+      <c r="CP14">
+        <v>3.867</v>
+      </c>
+      <c r="CQ14">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="CR14" t="b">
+        <v>0</v>
+      </c>
+      <c r="CS14" t="b">
+        <v>0</v>
+      </c>
+      <c r="CX14">
+        <v>609</v>
+      </c>
+      <c r="CY14">
+        <v>31</v>
+      </c>
+      <c r="CZ14">
+        <v>10</v>
+      </c>
+      <c r="DA14">
+        <v>18</v>
+      </c>
+      <c r="DB14">
+        <v>10</v>
+      </c>
+      <c r="DC14">
+        <v>27594.3</v>
+      </c>
+      <c r="DD14">
+        <v>7075.45</v>
+      </c>
+      <c r="DF14" t="s">
+        <v>176</v>
+      </c>
+      <c r="DG14">
+        <v>0</v>
+      </c>
+      <c r="DH14">
+        <v>30</v>
+      </c>
+      <c r="DI14" t="b">
+        <v>0</v>
+      </c>
+      <c r="DJ14">
+        <v>10</v>
+      </c>
+      <c r="DK14" t="b">
+        <v>1</v>
+      </c>
+      <c r="DM14" t="s">
+        <v>177</v>
+      </c>
+      <c r="DN14">
+        <v>39.961265769999997</v>
+      </c>
+      <c r="DO14">
+        <v>-106.21651670999999</v>
+      </c>
+      <c r="DP14">
+        <v>331.2</v>
+      </c>
+      <c r="DQ14">
+        <v>7949.9</v>
+      </c>
+      <c r="DR14">
+        <v>393.7</v>
+      </c>
+      <c r="DS14" t="b">
+        <v>1</v>
+      </c>
+      <c r="DT14">
+        <v>1</v>
+      </c>
+      <c r="DU14">
+        <v>1</v>
+      </c>
+      <c r="DV14" t="b">
+        <v>0</v>
+      </c>
+      <c r="DW14" t="b">
+        <v>0</v>
+      </c>
+      <c r="DX14" t="b">
+        <v>0</v>
+      </c>
+      <c r="DY14" t="b">
+        <v>0</v>
+      </c>
+      <c r="DZ14">
+        <v>2</v>
+      </c>
+      <c r="EA14" t="b">
+        <v>1</v>
+      </c>
+      <c r="EB14" t="b">
+        <v>0</v>
+      </c>
+      <c r="EC14" t="b">
+        <v>0</v>
+      </c>
+      <c r="ED14" t="s">
+        <v>178</v>
+      </c>
+      <c r="EE14">
+        <v>98.4</v>
+      </c>
+      <c r="EG14">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="EH14" t="s">
+        <v>210</v>
+      </c>
+      <c r="EI14">
+        <v>15</v>
+      </c>
+      <c r="EK14" t="s">
+        <v>227</v>
+      </c>
+      <c r="EQ14">
+        <v>471.3</v>
+      </c>
+      <c r="ER14">
+        <v>9961.2999999999993</v>
+      </c>
+      <c r="ES14">
+        <v>133.9</v>
+      </c>
+      <c r="ET14">
+        <v>43.4</v>
+      </c>
+      <c r="EU14">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="EV14">
+        <v>0</v>
+      </c>
+      <c r="EW14">
+        <v>264</v>
+      </c>
+      <c r="EY14" t="s">
+        <v>228</v>
+      </c>
+      <c r="FB14" t="s">
+        <v>218</v>
+      </c>
+      <c r="FD14" t="s">
+        <v>180</v>
+      </c>
+      <c r="FE14" t="s">
+        <v>181</v>
+      </c>
+      <c r="FK14" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="15" spans="1:167" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>762</v>
+      </c>
+      <c r="B15" s="1">
+        <v>43209</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.79641956018518512</v>
+      </c>
+      <c r="D15" t="s">
+        <v>238</v>
+      </c>
+      <c r="E15">
+        <v>84.9</v>
+      </c>
+      <c r="F15">
+        <v>39.960280099999999</v>
+      </c>
+      <c r="G15">
+        <v>-106.21663507</v>
+      </c>
+      <c r="H15">
+        <v>89.9</v>
+      </c>
+      <c r="I15">
+        <v>94.2</v>
+      </c>
+      <c r="J15">
+        <v>23.3</v>
+      </c>
+      <c r="K15">
+        <v>8218</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>24</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0.7</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0.2</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>1.3</v>
+      </c>
+      <c r="T15">
+        <v>-9.3000000000000007</v>
+      </c>
+      <c r="U15">
+        <v>6</v>
+      </c>
+      <c r="V15">
+        <v>-175.5</v>
+      </c>
+      <c r="W15">
+        <v>184.5</v>
+      </c>
+      <c r="X15" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>215</v>
+      </c>
+      <c r="AA15">
+        <v>19</v>
+      </c>
+      <c r="AB15">
+        <v>5</v>
+      </c>
+      <c r="AC15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>171</v>
+      </c>
+      <c r="AF15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>172</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>173</v>
+      </c>
+      <c r="AK15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ15" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA15" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB15">
+        <v>0</v>
+      </c>
+      <c r="BC15" t="s">
+        <v>174</v>
+      </c>
+      <c r="BD15">
+        <v>-17.899999999999999</v>
+      </c>
+      <c r="BE15">
+        <v>0</v>
+      </c>
+      <c r="BF15">
+        <v>-175</v>
+      </c>
+      <c r="BG15">
+        <v>185</v>
+      </c>
+      <c r="BH15" t="b">
+        <v>0</v>
+      </c>
+      <c r="BI15" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ15" t="b">
+        <v>0</v>
+      </c>
+      <c r="BK15" t="b">
+        <v>0</v>
+      </c>
+      <c r="BL15" t="b">
+        <v>0</v>
+      </c>
+      <c r="BM15" t="b">
+        <v>0</v>
+      </c>
+      <c r="BO15" t="b">
+        <v>0</v>
+      </c>
+      <c r="BP15" t="s">
+        <v>175</v>
+      </c>
+      <c r="BS15">
+        <v>1024</v>
+      </c>
+      <c r="BT15">
+        <v>1024</v>
+      </c>
+      <c r="BU15">
+        <v>1024</v>
+      </c>
+      <c r="BV15">
+        <v>1024</v>
+      </c>
+      <c r="BW15">
+        <v>0</v>
+      </c>
+      <c r="BX15" t="b">
+        <v>0</v>
+      </c>
+      <c r="BY15" t="b">
+        <v>0</v>
+      </c>
+      <c r="BZ15" t="b">
+        <v>0</v>
+      </c>
+      <c r="CA15" t="b">
+        <v>0</v>
+      </c>
+      <c r="CB15" t="b">
+        <v>0</v>
+      </c>
+      <c r="CC15">
+        <v>0</v>
+      </c>
+      <c r="CD15" t="b">
+        <v>0</v>
+      </c>
+      <c r="CE15" t="b">
+        <v>0</v>
+      </c>
+      <c r="CF15" t="b">
+        <v>0</v>
+      </c>
+      <c r="CG15" t="b">
+        <v>0</v>
+      </c>
+      <c r="CH15">
+        <v>64</v>
+      </c>
+      <c r="CL15">
+        <v>11.603</v>
+      </c>
+      <c r="CM15" t="b">
+        <v>0</v>
+      </c>
+      <c r="CN15">
+        <v>3.8879999999999999</v>
+      </c>
+      <c r="CO15">
+        <v>3.8639999999999999</v>
+      </c>
+      <c r="CP15">
+        <v>3.8559999999999999</v>
+      </c>
+      <c r="CQ15">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="CR15" t="b">
+        <v>0</v>
+      </c>
+      <c r="CS15" t="b">
+        <v>0</v>
+      </c>
+      <c r="CX15">
+        <v>602</v>
+      </c>
+      <c r="CY15">
+        <v>32</v>
+      </c>
+      <c r="CZ15">
+        <v>10</v>
+      </c>
+      <c r="DA15">
+        <v>18</v>
+      </c>
+      <c r="DB15">
+        <v>10</v>
+      </c>
+      <c r="DC15">
+        <v>26659.3</v>
+      </c>
+      <c r="DD15">
+        <v>6835.72</v>
+      </c>
+      <c r="DF15" t="s">
+        <v>176</v>
+      </c>
+      <c r="DG15">
+        <v>0</v>
+      </c>
+      <c r="DH15">
+        <v>30</v>
+      </c>
+      <c r="DI15" t="b">
+        <v>0</v>
+      </c>
+      <c r="DJ15">
+        <v>10</v>
+      </c>
+      <c r="DK15" t="b">
+        <v>1</v>
+      </c>
+      <c r="DM15" t="s">
+        <v>177</v>
+      </c>
+      <c r="DN15">
+        <v>39.961265769999997</v>
+      </c>
+      <c r="DO15">
+        <v>-106.21651670999999</v>
+      </c>
+      <c r="DP15">
+        <v>361.1</v>
+      </c>
+      <c r="DQ15">
+        <v>7949.9</v>
+      </c>
+      <c r="DR15">
+        <v>393.7</v>
+      </c>
+      <c r="DS15" t="b">
+        <v>1</v>
+      </c>
+      <c r="DT15">
+        <v>1</v>
+      </c>
+      <c r="DU15">
+        <v>1</v>
+      </c>
+      <c r="DV15" t="b">
+        <v>0</v>
+      </c>
+      <c r="DW15" t="b">
+        <v>0</v>
+      </c>
+      <c r="DX15" t="b">
+        <v>0</v>
+      </c>
+      <c r="DY15" t="b">
+        <v>0</v>
+      </c>
+      <c r="DZ15">
+        <v>2</v>
+      </c>
+      <c r="EA15" t="b">
+        <v>1</v>
+      </c>
+      <c r="EB15" t="b">
+        <v>0</v>
+      </c>
+      <c r="EC15" t="b">
+        <v>0</v>
+      </c>
+      <c r="ED15" t="s">
+        <v>178</v>
+      </c>
+      <c r="EE15">
+        <v>98.4</v>
+      </c>
+      <c r="EG15">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="EH15" t="s">
+        <v>210</v>
+      </c>
+      <c r="EI15">
+        <v>15</v>
+      </c>
+      <c r="EK15" t="s">
+        <v>227</v>
+      </c>
+      <c r="EQ15">
+        <v>471.3</v>
+      </c>
+      <c r="ER15">
+        <v>9961.2999999999993</v>
+      </c>
+      <c r="ES15">
+        <v>133.9</v>
+      </c>
+      <c r="ET15">
+        <v>43.4</v>
+      </c>
+      <c r="EU15">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="EV15">
+        <v>0</v>
+      </c>
+      <c r="EW15">
+        <v>264</v>
+      </c>
+      <c r="EY15" t="s">
+        <v>228</v>
+      </c>
+      <c r="FB15" t="s">
+        <v>218</v>
+      </c>
+      <c r="FD15" t="s">
+        <v>180</v>
+      </c>
+      <c r="FE15" t="s">
+        <v>181</v>
+      </c>
+      <c r="FK15" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="16" spans="1:167" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1740</v>
+      </c>
+      <c r="B16" s="1">
+        <v>43209</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.79759826388888888</v>
+      </c>
+      <c r="D16" t="s">
+        <v>239</v>
+      </c>
+      <c r="E16">
+        <v>186.9</v>
+      </c>
+      <c r="F16">
+        <v>39.959937889999999</v>
+      </c>
+      <c r="G16">
+        <v>-106.21674412</v>
+      </c>
+      <c r="H16">
+        <v>89.9</v>
+      </c>
+      <c r="I16">
+        <v>94.2</v>
+      </c>
+      <c r="J16">
+        <v>23.3</v>
+      </c>
+      <c r="K16">
+        <v>8218</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>24</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0.7</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0.2</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>1.3</v>
+      </c>
+      <c r="T16">
+        <v>-10.1</v>
+      </c>
+      <c r="U16">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="V16">
+        <v>-163.9</v>
+      </c>
+      <c r="W16">
+        <v>196.1</v>
+      </c>
+      <c r="X16" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>215</v>
+      </c>
+      <c r="AA16">
+        <v>20</v>
+      </c>
+      <c r="AB16">
+        <v>5</v>
+      </c>
+      <c r="AC16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>171</v>
+      </c>
+      <c r="AF16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>172</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>173</v>
+      </c>
+      <c r="AK16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ16" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA16" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB16">
+        <v>0</v>
+      </c>
+      <c r="BC16" t="s">
+        <v>174</v>
+      </c>
+      <c r="BD16">
+        <v>-18.2</v>
+      </c>
+      <c r="BE16">
+        <v>0</v>
+      </c>
+      <c r="BF16">
+        <v>-163.69999999999999</v>
+      </c>
+      <c r="BG16">
+        <v>196.3</v>
+      </c>
+      <c r="BH16" t="b">
+        <v>0</v>
+      </c>
+      <c r="BI16" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ16" t="b">
+        <v>0</v>
+      </c>
+      <c r="BK16" t="b">
+        <v>0</v>
+      </c>
+      <c r="BL16" t="b">
+        <v>0</v>
+      </c>
+      <c r="BM16" t="b">
+        <v>0</v>
+      </c>
+      <c r="BO16" t="b">
+        <v>0</v>
+      </c>
+      <c r="BP16" t="s">
+        <v>175</v>
+      </c>
+      <c r="BS16">
+        <v>1024</v>
+      </c>
+      <c r="BT16">
+        <v>1024</v>
+      </c>
+      <c r="BU16">
+        <v>1024</v>
+      </c>
+      <c r="BV16">
+        <v>1024</v>
+      </c>
+      <c r="BW16">
+        <v>0</v>
+      </c>
+      <c r="BX16" t="b">
+        <v>0</v>
+      </c>
+      <c r="BY16" t="b">
+        <v>0</v>
+      </c>
+      <c r="BZ16" t="b">
+        <v>0</v>
+      </c>
+      <c r="CA16" t="b">
+        <v>0</v>
+      </c>
+      <c r="CB16" t="b">
+        <v>0</v>
+      </c>
+      <c r="CC16">
+        <v>0</v>
+      </c>
+      <c r="CD16" t="b">
+        <v>0</v>
+      </c>
+      <c r="CE16" t="b">
+        <v>0</v>
+      </c>
+      <c r="CF16" t="b">
+        <v>0</v>
+      </c>
+      <c r="CG16" t="b">
+        <v>0</v>
+      </c>
+      <c r="CH16">
+        <v>56</v>
+      </c>
+      <c r="CL16">
+        <v>11.353999999999999</v>
+      </c>
+      <c r="CM16" t="b">
+        <v>0</v>
+      </c>
+      <c r="CN16">
+        <v>3.8090000000000002</v>
+      </c>
+      <c r="CO16">
+        <v>3.7839999999999998</v>
+      </c>
+      <c r="CP16">
+        <v>3.7730000000000001</v>
+      </c>
+      <c r="CQ16">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="CR16" t="b">
+        <v>0</v>
+      </c>
+      <c r="CS16" t="b">
+        <v>0</v>
+      </c>
+      <c r="CX16">
+        <v>522</v>
+      </c>
+      <c r="CY16">
+        <v>37</v>
+      </c>
+      <c r="CZ16">
+        <v>10</v>
+      </c>
+      <c r="DA16">
+        <v>19</v>
+      </c>
+      <c r="DB16">
+        <v>10</v>
+      </c>
+      <c r="DC16">
+        <v>28092.400000000001</v>
+      </c>
+      <c r="DD16">
+        <v>7203.17</v>
+      </c>
+      <c r="DF16" t="s">
+        <v>176</v>
+      </c>
+      <c r="DG16">
+        <v>0</v>
+      </c>
+      <c r="DH16">
+        <v>30</v>
+      </c>
+      <c r="DI16" t="b">
+        <v>0</v>
+      </c>
+      <c r="DJ16">
+        <v>10</v>
+      </c>
+      <c r="DK16" t="b">
+        <v>1</v>
+      </c>
+      <c r="DM16" t="s">
+        <v>177</v>
+      </c>
+      <c r="DN16">
+        <v>39.961265769999997</v>
+      </c>
+      <c r="DO16">
+        <v>-106.21651670999999</v>
+      </c>
+      <c r="DP16">
+        <v>488.6</v>
+      </c>
+      <c r="DQ16">
+        <v>7949.9</v>
+      </c>
+      <c r="DR16">
+        <v>393.7</v>
+      </c>
+      <c r="DS16" t="b">
+        <v>1</v>
+      </c>
+      <c r="DT16">
+        <v>1</v>
+      </c>
+      <c r="DU16">
+        <v>1</v>
+      </c>
+      <c r="DV16" t="b">
+        <v>0</v>
+      </c>
+      <c r="DW16" t="b">
+        <v>0</v>
+      </c>
+      <c r="DX16" t="b">
+        <v>0</v>
+      </c>
+      <c r="DY16" t="b">
+        <v>0</v>
+      </c>
+      <c r="DZ16">
+        <v>2</v>
+      </c>
+      <c r="EA16" t="b">
+        <v>1</v>
+      </c>
+      <c r="EB16" t="b">
+        <v>0</v>
+      </c>
+      <c r="EC16" t="b">
+        <v>0</v>
+      </c>
+      <c r="ED16" t="s">
+        <v>178</v>
+      </c>
+      <c r="EE16">
+        <v>98.4</v>
+      </c>
+      <c r="EG16">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="EH16" t="s">
+        <v>210</v>
+      </c>
+      <c r="EI16">
+        <v>15</v>
+      </c>
+      <c r="EK16" t="s">
+        <v>227</v>
+      </c>
+      <c r="EQ16">
+        <v>471.3</v>
+      </c>
+      <c r="ER16">
+        <v>9961.2999999999993</v>
+      </c>
+      <c r="ES16">
+        <v>133.9</v>
+      </c>
+      <c r="ET16">
+        <v>43.4</v>
+      </c>
+      <c r="EU16">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="EV16">
+        <v>0</v>
+      </c>
+      <c r="EW16">
+        <v>264</v>
+      </c>
+      <c r="EY16" t="s">
+        <v>228</v>
+      </c>
+      <c r="FB16" t="s">
+        <v>218</v>
+      </c>
+      <c r="FD16" t="s">
+        <v>180</v>
+      </c>
+      <c r="FE16" t="s">
+        <v>181</v>
+      </c>
+      <c r="FK16" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="17" spans="1:167" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1894</v>
+      </c>
+      <c r="B17" s="1">
+        <v>43209</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.79777974537037044</v>
+      </c>
+      <c r="D17" t="s">
+        <v>234</v>
+      </c>
+      <c r="E17">
+        <v>202.5</v>
+      </c>
+      <c r="F17">
+        <v>39.959936059999997</v>
+      </c>
+      <c r="G17">
+        <v>-106.21674520000001</v>
+      </c>
+      <c r="H17">
+        <v>89.6</v>
+      </c>
+      <c r="I17">
+        <v>94.2</v>
+      </c>
+      <c r="J17">
+        <v>23.3</v>
+      </c>
+      <c r="K17">
+        <v>8218</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>24</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0.7</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0.2</v>
+      </c>
+      <c r="R17">
+        <v>-0.2</v>
+      </c>
+      <c r="S17">
+        <v>1.3</v>
+      </c>
+      <c r="T17">
+        <v>-8.9</v>
+      </c>
+      <c r="U17">
+        <v>1.5</v>
+      </c>
+      <c r="V17">
+        <v>-163.9</v>
+      </c>
+      <c r="W17">
+        <v>196.1</v>
+      </c>
+      <c r="X17" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>215</v>
+      </c>
+      <c r="AA17">
+        <v>20</v>
+      </c>
+      <c r="AB17">
+        <v>5</v>
+      </c>
+      <c r="AC17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>171</v>
+      </c>
+      <c r="AF17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>172</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>173</v>
+      </c>
+      <c r="AK17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ17" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA17" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB17">
+        <v>0</v>
+      </c>
+      <c r="BC17" t="s">
+        <v>174</v>
+      </c>
+      <c r="BD17">
+        <v>-18.2</v>
+      </c>
+      <c r="BE17">
+        <v>0</v>
+      </c>
+      <c r="BF17">
+        <v>-163.69999999999999</v>
+      </c>
+      <c r="BG17">
+        <v>196.3</v>
+      </c>
+      <c r="BH17" t="b">
+        <v>0</v>
+      </c>
+      <c r="BI17" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ17" t="b">
+        <v>0</v>
+      </c>
+      <c r="BK17" t="b">
+        <v>0</v>
+      </c>
+      <c r="BL17" t="b">
+        <v>0</v>
+      </c>
+      <c r="BM17" t="b">
+        <v>0</v>
+      </c>
+      <c r="BO17" t="b">
+        <v>0</v>
+      </c>
+      <c r="BP17" t="s">
+        <v>175</v>
+      </c>
+      <c r="BS17">
+        <v>1024</v>
+      </c>
+      <c r="BT17">
+        <v>1024</v>
+      </c>
+      <c r="BU17">
+        <v>1024</v>
+      </c>
+      <c r="BV17">
+        <v>1024</v>
+      </c>
+      <c r="BW17">
+        <v>0</v>
+      </c>
+      <c r="BX17" t="b">
+        <v>0</v>
+      </c>
+      <c r="BY17" t="b">
+        <v>0</v>
+      </c>
+      <c r="BZ17" t="b">
+        <v>0</v>
+      </c>
+      <c r="CA17" t="b">
+        <v>0</v>
+      </c>
+      <c r="CB17" t="b">
+        <v>0</v>
+      </c>
+      <c r="CC17">
+        <v>0</v>
+      </c>
+      <c r="CD17" t="b">
+        <v>0</v>
+      </c>
+      <c r="CE17" t="b">
+        <v>0</v>
+      </c>
+      <c r="CF17" t="b">
+        <v>0</v>
+      </c>
+      <c r="CG17" t="b">
+        <v>0</v>
+      </c>
+      <c r="CH17">
+        <v>54</v>
+      </c>
+      <c r="CL17">
+        <v>11.33</v>
+      </c>
+      <c r="CM17" t="b">
+        <v>0</v>
+      </c>
+      <c r="CN17">
+        <v>3.7989999999999999</v>
+      </c>
+      <c r="CO17">
+        <v>3.7709999999999999</v>
+      </c>
+      <c r="CP17">
+        <v>3.76</v>
+      </c>
+      <c r="CQ17">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="CR17" t="b">
+        <v>0</v>
+      </c>
+      <c r="CS17" t="b">
+        <v>0</v>
+      </c>
+      <c r="CX17">
+        <v>510</v>
+      </c>
+      <c r="CY17">
+        <v>37</v>
+      </c>
+      <c r="CZ17">
+        <v>10</v>
+      </c>
+      <c r="DA17">
+        <v>19</v>
+      </c>
+      <c r="DB17">
+        <v>10</v>
+      </c>
+      <c r="DC17">
+        <v>28841.8</v>
+      </c>
+      <c r="DD17">
+        <v>7395.34</v>
+      </c>
+      <c r="DF17" t="s">
+        <v>176</v>
+      </c>
+      <c r="DG17">
+        <v>0</v>
+      </c>
+      <c r="DH17">
+        <v>30</v>
+      </c>
+      <c r="DI17" t="b">
+        <v>0</v>
+      </c>
+      <c r="DJ17">
+        <v>10</v>
+      </c>
+      <c r="DK17" t="b">
+        <v>1</v>
+      </c>
+      <c r="DM17" t="s">
+        <v>177</v>
+      </c>
+      <c r="DN17">
+        <v>39.961265769999997</v>
+      </c>
+      <c r="DO17">
+        <v>-106.21651670999999</v>
+      </c>
+      <c r="DP17">
+        <v>489.3</v>
+      </c>
+      <c r="DQ17">
+        <v>7949.9</v>
+      </c>
+      <c r="DR17">
+        <v>393.7</v>
+      </c>
+      <c r="DS17" t="b">
+        <v>1</v>
+      </c>
+      <c r="DT17">
+        <v>1</v>
+      </c>
+      <c r="DU17">
+        <v>1</v>
+      </c>
+      <c r="DV17" t="b">
+        <v>0</v>
+      </c>
+      <c r="DW17" t="b">
+        <v>0</v>
+      </c>
+      <c r="DX17" t="b">
+        <v>0</v>
+      </c>
+      <c r="DY17" t="b">
+        <v>0</v>
+      </c>
+      <c r="DZ17">
+        <v>2</v>
+      </c>
+      <c r="EA17" t="b">
+        <v>1</v>
+      </c>
+      <c r="EB17" t="b">
+        <v>0</v>
+      </c>
+      <c r="EC17" t="b">
+        <v>0</v>
+      </c>
+      <c r="ED17" t="s">
+        <v>178</v>
+      </c>
+      <c r="EE17">
+        <v>98.4</v>
+      </c>
+      <c r="EG17">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="EH17" t="s">
+        <v>210</v>
+      </c>
+      <c r="EI17">
+        <v>15</v>
+      </c>
+      <c r="EK17" t="s">
+        <v>227</v>
+      </c>
+      <c r="EQ17">
+        <v>471.3</v>
+      </c>
+      <c r="ER17">
+        <v>9961.2999999999993</v>
+      </c>
+      <c r="ES17">
+        <v>133.9</v>
+      </c>
+      <c r="ET17">
+        <v>43.4</v>
+      </c>
+      <c r="EU17">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="EV17">
+        <v>0</v>
+      </c>
+      <c r="EW17">
+        <v>264</v>
+      </c>
+      <c r="EY17" t="s">
+        <v>228</v>
+      </c>
+      <c r="FB17" t="s">
+        <v>218</v>
+      </c>
+      <c r="FD17" t="s">
+        <v>180</v>
+      </c>
+      <c r="FE17" t="s">
+        <v>181</v>
+      </c>
+      <c r="FJ17" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="18" spans="1:167" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2255</v>
+      </c>
+      <c r="B18" s="1">
+        <v>43209</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.79822465277777777</v>
+      </c>
+      <c r="D18" t="s">
+        <v>240</v>
+      </c>
+      <c r="E18">
+        <v>240.9</v>
+      </c>
+      <c r="F18">
+        <v>39.960809359999999</v>
+      </c>
+      <c r="G18">
+        <v>-106.21735077</v>
+      </c>
+      <c r="H18">
+        <v>132.5</v>
+      </c>
+      <c r="I18">
+        <v>133.9</v>
+      </c>
+      <c r="J18">
+        <v>23.3</v>
+      </c>
+      <c r="K18">
+        <v>8261</v>
+      </c>
+      <c r="L18">
+        <v>36.5</v>
+      </c>
+      <c r="M18">
+        <v>37.1</v>
+      </c>
+      <c r="N18">
+        <v>29.3</v>
+      </c>
+      <c r="O18">
+        <v>32.4</v>
+      </c>
+      <c r="P18">
+        <v>-19.7</v>
+      </c>
+      <c r="Q18">
+        <v>27.1</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>1.3</v>
+      </c>
+      <c r="T18">
+        <v>-35.4</v>
+      </c>
+      <c r="U18">
+        <v>-12.6</v>
+      </c>
+      <c r="V18">
+        <v>-114.4</v>
+      </c>
+      <c r="W18">
+        <v>245.6</v>
+      </c>
+      <c r="X18" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>215</v>
+      </c>
+      <c r="AA18">
+        <v>18</v>
+      </c>
+      <c r="AB18">
+        <v>5</v>
+      </c>
+      <c r="AC18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>171</v>
+      </c>
+      <c r="AF18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>172</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>173</v>
+      </c>
+      <c r="AK18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ18" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA18" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB18">
+        <v>0</v>
+      </c>
+      <c r="BC18" t="s">
+        <v>174</v>
+      </c>
+      <c r="BD18">
+        <v>-21.4</v>
+      </c>
+      <c r="BE18">
+        <v>0</v>
+      </c>
+      <c r="BF18">
+        <v>-122.6</v>
+      </c>
+      <c r="BG18">
+        <v>237.4</v>
+      </c>
+      <c r="BH18" t="b">
+        <v>0</v>
+      </c>
+      <c r="BI18" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ18" t="b">
+        <v>0</v>
+      </c>
+      <c r="BK18" t="b">
+        <v>0</v>
+      </c>
+      <c r="BL18" t="b">
+        <v>0</v>
+      </c>
+      <c r="BM18" t="b">
+        <v>1</v>
+      </c>
+      <c r="BO18" t="b">
+        <v>1</v>
+      </c>
+      <c r="BP18" t="s">
+        <v>195</v>
+      </c>
+      <c r="BS18">
+        <v>1024</v>
+      </c>
+      <c r="BT18">
+        <v>1684</v>
+      </c>
+      <c r="BU18">
+        <v>1024</v>
+      </c>
+      <c r="BV18">
+        <v>1024</v>
+      </c>
+      <c r="BW18">
+        <v>0</v>
+      </c>
+      <c r="BX18" t="b">
+        <v>0</v>
+      </c>
+      <c r="BY18" t="b">
+        <v>0</v>
+      </c>
+      <c r="BZ18" t="b">
+        <v>0</v>
+      </c>
+      <c r="CA18" t="b">
+        <v>0</v>
+      </c>
+      <c r="CB18" t="b">
+        <v>0</v>
+      </c>
+      <c r="CC18">
+        <v>0</v>
+      </c>
+      <c r="CD18" t="b">
+        <v>0</v>
+      </c>
+      <c r="CE18" t="b">
+        <v>0</v>
+      </c>
+      <c r="CF18" t="b">
+        <v>0</v>
+      </c>
+      <c r="CG18" t="b">
+        <v>0</v>
+      </c>
+      <c r="CH18">
+        <v>50</v>
+      </c>
+      <c r="CL18">
+        <v>11.045</v>
+      </c>
+      <c r="CM18" t="b">
+        <v>0</v>
+      </c>
+      <c r="CN18">
+        <v>3.7080000000000002</v>
+      </c>
+      <c r="CO18">
+        <v>3.6720000000000002</v>
+      </c>
+      <c r="CP18">
+        <v>3.6589999999999998</v>
+      </c>
+      <c r="CQ18">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="CR18" t="b">
+        <v>0</v>
+      </c>
+      <c r="CS18" t="b">
+        <v>0</v>
+      </c>
+      <c r="CX18">
+        <v>448</v>
+      </c>
+      <c r="CY18">
+        <v>18</v>
+      </c>
+      <c r="CZ18">
+        <v>16</v>
+      </c>
+      <c r="DA18">
+        <v>18</v>
+      </c>
+      <c r="DB18">
+        <v>11</v>
+      </c>
+      <c r="DC18">
+        <v>36988.5</v>
+      </c>
+      <c r="DD18">
+        <v>9484.23</v>
+      </c>
+      <c r="DF18" t="s">
+        <v>176</v>
+      </c>
+      <c r="DG18">
+        <v>0</v>
+      </c>
+      <c r="DH18">
+        <v>30</v>
+      </c>
+      <c r="DI18" t="b">
+        <v>0</v>
+      </c>
+      <c r="DJ18">
+        <v>10</v>
+      </c>
+      <c r="DK18" t="b">
+        <v>1</v>
+      </c>
+      <c r="DM18" t="s">
+        <v>177</v>
+      </c>
+      <c r="DN18">
+        <v>39.961265769999997</v>
+      </c>
+      <c r="DO18">
+        <v>-106.21651670999999</v>
+      </c>
+      <c r="DP18">
+        <v>286.5</v>
+      </c>
+      <c r="DQ18">
+        <v>7949.9</v>
+      </c>
+      <c r="DR18">
+        <v>393.7</v>
+      </c>
+      <c r="DS18" t="b">
+        <v>1</v>
+      </c>
+      <c r="DT18">
+        <v>1</v>
+      </c>
+      <c r="DU18">
+        <v>1</v>
+      </c>
+      <c r="DV18" t="b">
+        <v>0</v>
+      </c>
+      <c r="DW18" t="b">
+        <v>0</v>
+      </c>
+      <c r="DX18" t="b">
+        <v>0</v>
+      </c>
+      <c r="DY18" t="b">
+        <v>0</v>
+      </c>
+      <c r="DZ18">
+        <v>2</v>
+      </c>
+      <c r="EA18" t="b">
+        <v>1</v>
+      </c>
+      <c r="EB18" t="b">
+        <v>0</v>
+      </c>
+      <c r="EC18" t="b">
+        <v>0</v>
+      </c>
+      <c r="ED18" t="s">
+        <v>178</v>
+      </c>
+      <c r="EE18">
+        <v>98.4</v>
+      </c>
+      <c r="EG18">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="EH18" t="s">
+        <v>210</v>
+      </c>
+      <c r="EI18">
+        <v>15</v>
+      </c>
+      <c r="EK18" t="s">
+        <v>227</v>
+      </c>
+      <c r="EQ18">
+        <v>471.3</v>
+      </c>
+      <c r="ER18">
+        <v>9961.2999999999993</v>
+      </c>
+      <c r="ES18">
+        <v>133.9</v>
+      </c>
+      <c r="ET18">
+        <v>43.4</v>
+      </c>
+      <c r="EU18">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="EV18">
+        <v>0</v>
+      </c>
+      <c r="EW18">
+        <v>264</v>
+      </c>
+      <c r="EY18" t="s">
+        <v>228</v>
+      </c>
+      <c r="FB18" t="s">
+        <v>218</v>
+      </c>
+      <c r="FD18" t="s">
+        <v>180</v>
+      </c>
+      <c r="FE18" t="s">
+        <v>181</v>
+      </c>
+      <c r="FK18" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="19" spans="1:167" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2561</v>
+      </c>
+      <c r="B19" s="1">
+        <v>43209</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.79859467592592592</v>
+      </c>
+      <c r="D19" t="s">
+        <v>241</v>
+      </c>
+      <c r="E19">
+        <v>272.89999999999998</v>
+      </c>
+      <c r="F19">
+        <v>39.962395989999997</v>
+      </c>
+      <c r="G19">
+        <v>-106.21700622</v>
+      </c>
+      <c r="H19">
+        <v>131.19999999999999</v>
+      </c>
+      <c r="I19">
+        <v>133.9</v>
+      </c>
+      <c r="J19">
+        <v>23.3</v>
+      </c>
+      <c r="K19">
+        <v>8259</v>
+      </c>
+      <c r="L19">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="M19">
+        <v>44.2</v>
+      </c>
+      <c r="N19">
+        <v>17</v>
+      </c>
+      <c r="O19">
+        <v>37.1</v>
+      </c>
+      <c r="P19">
+        <v>8.5</v>
+      </c>
+      <c r="Q19">
+        <v>34</v>
+      </c>
+      <c r="R19">
+        <v>0.5</v>
+      </c>
+      <c r="S19">
+        <v>1.3</v>
+      </c>
+      <c r="T19">
+        <v>29</v>
+      </c>
+      <c r="U19">
+        <v>-4.5</v>
+      </c>
+      <c r="V19">
+        <v>21.5</v>
+      </c>
+      <c r="W19">
+        <v>21.5</v>
+      </c>
+      <c r="X19" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>215</v>
+      </c>
+      <c r="AA19">
+        <v>19</v>
+      </c>
+      <c r="AB19">
+        <v>5</v>
+      </c>
+      <c r="AC19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>171</v>
+      </c>
+      <c r="AF19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>172</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>173</v>
+      </c>
+      <c r="AK19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ19" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA19" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB19">
+        <v>0</v>
+      </c>
+      <c r="BC19" t="s">
+        <v>174</v>
+      </c>
+      <c r="BD19">
+        <v>-21.4</v>
+      </c>
+      <c r="BE19">
+        <v>0</v>
+      </c>
+      <c r="BF19">
+        <v>22.2</v>
+      </c>
+      <c r="BG19">
+        <v>22.2</v>
+      </c>
+      <c r="BH19" t="b">
+        <v>0</v>
+      </c>
+      <c r="BI19" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ19" t="b">
+        <v>0</v>
+      </c>
+      <c r="BK19" t="b">
+        <v>0</v>
+      </c>
+      <c r="BL19" t="b">
+        <v>0</v>
+      </c>
+      <c r="BM19" t="b">
+        <v>1</v>
+      </c>
+      <c r="BO19" t="b">
+        <v>1</v>
+      </c>
+      <c r="BP19" t="s">
+        <v>195</v>
+      </c>
+      <c r="BS19">
+        <v>1024</v>
+      </c>
+      <c r="BT19">
+        <v>1024</v>
+      </c>
+      <c r="BU19">
+        <v>1024</v>
+      </c>
+      <c r="BV19">
+        <v>1024</v>
+      </c>
+      <c r="BW19">
+        <v>0</v>
+      </c>
+      <c r="BX19" t="b">
+        <v>0</v>
+      </c>
+      <c r="BY19" t="b">
+        <v>0</v>
+      </c>
+      <c r="BZ19" t="b">
+        <v>0</v>
+      </c>
+      <c r="CA19" t="b">
+        <v>0</v>
+      </c>
+      <c r="CB19" t="b">
+        <v>0</v>
+      </c>
+      <c r="CC19">
+        <v>0</v>
+      </c>
+      <c r="CD19" t="b">
+        <v>0</v>
+      </c>
+      <c r="CE19" t="b">
+        <v>0</v>
+      </c>
+      <c r="CF19" t="b">
+        <v>0</v>
+      </c>
+      <c r="CG19" t="b">
+        <v>0</v>
+      </c>
+      <c r="CH19">
+        <v>46</v>
+      </c>
+      <c r="CL19">
+        <v>11.177</v>
+      </c>
+      <c r="CM19" t="b">
+        <v>0</v>
+      </c>
+      <c r="CN19">
+        <v>3.7320000000000002</v>
+      </c>
+      <c r="CO19">
+        <v>3.71</v>
+      </c>
+      <c r="CP19">
+        <v>3.7</v>
+      </c>
+      <c r="CQ19">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="CR19" t="b">
+        <v>0</v>
+      </c>
+      <c r="CS19" t="b">
+        <v>0</v>
+      </c>
+      <c r="CX19">
+        <v>432</v>
+      </c>
+      <c r="CY19">
+        <v>25</v>
+      </c>
+      <c r="CZ19">
+        <v>16</v>
+      </c>
+      <c r="DA19">
+        <v>19</v>
+      </c>
+      <c r="DB19">
+        <v>11</v>
+      </c>
+      <c r="DC19">
+        <v>32297.5</v>
+      </c>
+      <c r="DD19">
+        <v>8281.41</v>
+      </c>
+      <c r="DF19" t="s">
+        <v>176</v>
+      </c>
+      <c r="DG19">
+        <v>0</v>
+      </c>
+      <c r="DH19">
+        <v>30</v>
+      </c>
+      <c r="DI19" t="b">
+        <v>0</v>
+      </c>
+      <c r="DJ19">
+        <v>10</v>
+      </c>
+      <c r="DK19" t="b">
+        <v>1</v>
+      </c>
+      <c r="DM19" t="s">
+        <v>177</v>
+      </c>
+      <c r="DN19">
+        <v>39.961265769999997</v>
+      </c>
+      <c r="DO19">
+        <v>-106.21651670999999</v>
+      </c>
+      <c r="DP19">
+        <v>434.4</v>
+      </c>
+      <c r="DQ19">
+        <v>7949.9</v>
+      </c>
+      <c r="DR19">
+        <v>393.7</v>
+      </c>
+      <c r="DS19" t="b">
+        <v>1</v>
+      </c>
+      <c r="DT19">
+        <v>1</v>
+      </c>
+      <c r="DU19">
+        <v>1</v>
+      </c>
+      <c r="DV19" t="b">
+        <v>0</v>
+      </c>
+      <c r="DW19" t="b">
+        <v>0</v>
+      </c>
+      <c r="DX19" t="b">
+        <v>0</v>
+      </c>
+      <c r="DY19" t="b">
+        <v>0</v>
+      </c>
+      <c r="DZ19">
+        <v>2</v>
+      </c>
+      <c r="EA19" t="b">
+        <v>1</v>
+      </c>
+      <c r="EB19" t="b">
+        <v>0</v>
+      </c>
+      <c r="EC19" t="b">
+        <v>0</v>
+      </c>
+      <c r="ED19" t="s">
+        <v>178</v>
+      </c>
+      <c r="EE19">
+        <v>98.4</v>
+      </c>
+      <c r="EG19">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="EH19" t="s">
+        <v>210</v>
+      </c>
+      <c r="EI19">
+        <v>15</v>
+      </c>
+      <c r="EK19" t="s">
+        <v>227</v>
+      </c>
+      <c r="EQ19">
+        <v>471.3</v>
+      </c>
+      <c r="ER19">
+        <v>9961.2999999999993</v>
+      </c>
+      <c r="ES19">
+        <v>133.9</v>
+      </c>
+      <c r="ET19">
+        <v>43.4</v>
+      </c>
+      <c r="EU19">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="EV19">
+        <v>0</v>
+      </c>
+      <c r="EW19">
+        <v>264</v>
+      </c>
+      <c r="EY19" t="s">
+        <v>228</v>
+      </c>
+      <c r="FB19" t="s">
+        <v>218</v>
+      </c>
+      <c r="FD19" t="s">
+        <v>180</v>
+      </c>
+      <c r="FE19" t="s">
+        <v>181</v>
+      </c>
+      <c r="FK19" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="20" spans="1:167" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>3205</v>
+      </c>
+      <c r="B20" s="1">
+        <v>43209</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.79940428240740735</v>
+      </c>
+      <c r="D20" t="s">
+        <v>242</v>
+      </c>
+      <c r="E20">
+        <v>342.9</v>
+      </c>
+      <c r="F20">
+        <v>39.962494960000001</v>
+      </c>
+      <c r="G20">
+        <v>-106.21695477999999</v>
+      </c>
+      <c r="H20">
+        <v>115.8</v>
+      </c>
+      <c r="I20">
+        <v>133.9</v>
+      </c>
+      <c r="J20">
+        <v>23.3</v>
+      </c>
+      <c r="K20">
+        <v>8244</v>
+      </c>
+      <c r="L20">
+        <v>27.2</v>
+      </c>
+      <c r="M20">
+        <v>44.5</v>
+      </c>
+      <c r="N20">
+        <v>-0.2</v>
+      </c>
+      <c r="O20">
+        <v>42.3</v>
+      </c>
+      <c r="P20">
+        <v>-27.3</v>
+      </c>
+      <c r="Q20">
+        <v>34</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="T20">
+        <v>-33.799999999999997</v>
+      </c>
+      <c r="U20">
+        <v>-4.9000000000000004</v>
+      </c>
+      <c r="V20">
+        <v>-177.2</v>
+      </c>
+      <c r="W20">
+        <v>182.8</v>
+      </c>
+      <c r="X20" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>215</v>
+      </c>
+      <c r="AA20">
+        <v>18</v>
+      </c>
+      <c r="AB20">
+        <v>5</v>
+      </c>
+      <c r="AC20" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>171</v>
+      </c>
+      <c r="AF20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>172</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>173</v>
+      </c>
+      <c r="AK20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL20" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP20" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ20" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA20" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB20">
+        <v>0</v>
+      </c>
+      <c r="BC20" t="s">
+        <v>174</v>
+      </c>
+      <c r="BD20">
+        <v>-21.4</v>
+      </c>
+      <c r="BE20">
+        <v>0</v>
+      </c>
+      <c r="BF20">
+        <v>-179</v>
+      </c>
+      <c r="BG20">
+        <v>181</v>
+      </c>
+      <c r="BH20" t="b">
+        <v>0</v>
+      </c>
+      <c r="BI20" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ20" t="b">
+        <v>0</v>
+      </c>
+      <c r="BK20" t="b">
+        <v>0</v>
+      </c>
+      <c r="BL20" t="b">
+        <v>0</v>
+      </c>
+      <c r="BM20" t="b">
+        <v>1</v>
+      </c>
+      <c r="BO20" t="b">
+        <v>1</v>
+      </c>
+      <c r="BP20" t="s">
+        <v>195</v>
+      </c>
+      <c r="BS20">
+        <v>1024</v>
+      </c>
+      <c r="BT20">
+        <v>1684</v>
+      </c>
+      <c r="BU20">
+        <v>1024</v>
+      </c>
+      <c r="BV20">
+        <v>1024</v>
+      </c>
+      <c r="BW20">
+        <v>0</v>
+      </c>
+      <c r="BX20" t="b">
+        <v>0</v>
+      </c>
+      <c r="BY20" t="b">
+        <v>0</v>
+      </c>
+      <c r="BZ20" t="b">
+        <v>0</v>
+      </c>
+      <c r="CA20" t="b">
+        <v>0</v>
+      </c>
+      <c r="CB20" t="b">
+        <v>0</v>
+      </c>
+      <c r="CC20">
+        <v>0</v>
+      </c>
+      <c r="CD20" t="b">
+        <v>0</v>
+      </c>
+      <c r="CE20" t="b">
+        <v>0</v>
+      </c>
+      <c r="CF20" t="b">
+        <v>0</v>
+      </c>
+      <c r="CG20" t="b">
+        <v>0</v>
+      </c>
+      <c r="CH20">
+        <v>37</v>
+      </c>
+      <c r="CL20">
+        <v>10.91</v>
+      </c>
+      <c r="CM20" t="b">
+        <v>0</v>
+      </c>
+      <c r="CN20">
+        <v>3.637</v>
+      </c>
+      <c r="CO20">
+        <v>3.613</v>
+      </c>
+      <c r="CP20">
+        <v>3.601</v>
+      </c>
+      <c r="CQ20">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="CR20" t="b">
+        <v>0</v>
+      </c>
+      <c r="CS20" t="b">
+        <v>0</v>
+      </c>
+      <c r="CX20">
+        <v>285</v>
+      </c>
+      <c r="CY20">
+        <v>29</v>
+      </c>
+      <c r="CZ20">
+        <v>14</v>
+      </c>
+      <c r="DA20">
+        <v>19</v>
+      </c>
+      <c r="DB20">
+        <v>11</v>
+      </c>
+      <c r="DC20">
+        <v>42438.6</v>
+      </c>
+      <c r="DD20">
+        <v>10881.7</v>
+      </c>
+      <c r="DF20" t="s">
+        <v>176</v>
+      </c>
+      <c r="DG20">
+        <v>0</v>
+      </c>
+      <c r="DH20">
+        <v>30</v>
+      </c>
+      <c r="DI20" t="b">
+        <v>0</v>
+      </c>
+      <c r="DJ20">
+        <v>10</v>
+      </c>
+      <c r="DK20" t="b">
+        <v>1</v>
+      </c>
+      <c r="DM20" t="s">
+        <v>177</v>
+      </c>
+      <c r="DN20">
+        <v>39.961265769999997</v>
+      </c>
+      <c r="DO20">
+        <v>-106.21651670999999</v>
+      </c>
+      <c r="DP20">
+        <v>464.8</v>
+      </c>
+      <c r="DQ20">
+        <v>7949.9</v>
+      </c>
+      <c r="DR20">
+        <v>393.7</v>
+      </c>
+      <c r="DS20" t="b">
+        <v>1</v>
+      </c>
+      <c r="DT20">
+        <v>1</v>
+      </c>
+      <c r="DU20">
+        <v>1</v>
+      </c>
+      <c r="DV20" t="b">
+        <v>0</v>
+      </c>
+      <c r="DW20" t="b">
+        <v>0</v>
+      </c>
+      <c r="DX20" t="b">
+        <v>0</v>
+      </c>
+      <c r="DY20" t="b">
+        <v>0</v>
+      </c>
+      <c r="DZ20">
+        <v>2</v>
+      </c>
+      <c r="EA20" t="b">
+        <v>1</v>
+      </c>
+      <c r="EB20" t="b">
+        <v>0</v>
+      </c>
+      <c r="EC20" t="b">
+        <v>0</v>
+      </c>
+      <c r="ED20" t="s">
+        <v>178</v>
+      </c>
+      <c r="EE20">
+        <v>98.4</v>
+      </c>
+      <c r="EG20">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="EH20" t="s">
+        <v>210</v>
+      </c>
+      <c r="EI20">
+        <v>15</v>
+      </c>
+      <c r="EK20" t="s">
+        <v>227</v>
+      </c>
+      <c r="EQ20">
+        <v>471.3</v>
+      </c>
+      <c r="ER20">
+        <v>9961.2999999999993</v>
+      </c>
+      <c r="ES20">
+        <v>133.9</v>
+      </c>
+      <c r="ET20">
+        <v>43.4</v>
+      </c>
+      <c r="EU20">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="EV20">
+        <v>0</v>
+      </c>
+      <c r="EW20">
+        <v>264</v>
+      </c>
+      <c r="EY20" t="s">
+        <v>228</v>
+      </c>
+      <c r="FB20" t="s">
+        <v>218</v>
+      </c>
+      <c r="FD20" t="s">
+        <v>180</v>
+      </c>
+      <c r="FE20" t="s">
+        <v>181</v>
+      </c>
+      <c r="FK20" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="21" spans="1:167" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>3694</v>
+      </c>
+      <c r="B21" s="1">
+        <v>43209</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.79999664351851851</v>
+      </c>
+      <c r="D21" t="s">
+        <v>243</v>
+      </c>
+      <c r="E21">
+        <v>393.9</v>
+      </c>
+      <c r="F21">
+        <v>39.963280320000003</v>
+      </c>
+      <c r="G21">
+        <v>-106.21624776</v>
+      </c>
+      <c r="H21">
+        <v>116.8</v>
+      </c>
+      <c r="I21">
+        <v>133.9</v>
+      </c>
+      <c r="J21">
+        <v>23.3</v>
+      </c>
+      <c r="K21">
+        <v>8245</v>
+      </c>
+      <c r="L21">
+        <v>1.5</v>
+      </c>
+      <c r="M21">
+        <v>45.5</v>
+      </c>
+      <c r="N21">
+        <v>-0.5</v>
+      </c>
+      <c r="O21">
+        <v>42.3</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>34</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="T21">
+        <v>4.5</v>
+      </c>
+      <c r="U21">
+        <v>12.5</v>
+      </c>
+      <c r="V21">
+        <v>89.7</v>
+      </c>
+      <c r="W21">
+        <v>89.7</v>
+      </c>
+      <c r="X21" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>215</v>
+      </c>
+      <c r="AA21">
+        <v>19</v>
+      </c>
+      <c r="AB21">
+        <v>5</v>
+      </c>
+      <c r="AC21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>171</v>
+      </c>
+      <c r="AF21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>172</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>173</v>
+      </c>
+      <c r="AK21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ21" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA21" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB21">
+        <v>1</v>
+      </c>
+      <c r="BC21" t="s">
+        <v>174</v>
+      </c>
+      <c r="BD21">
+        <v>-21.1</v>
+      </c>
+      <c r="BE21">
+        <v>0</v>
+      </c>
+      <c r="BF21">
+        <v>94.6</v>
+      </c>
+      <c r="BG21">
+        <v>94.6</v>
+      </c>
+      <c r="BH21" t="b">
+        <v>0</v>
+      </c>
+      <c r="BI21" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ21" t="b">
+        <v>0</v>
+      </c>
+      <c r="BK21" t="b">
+        <v>0</v>
+      </c>
+      <c r="BL21" t="b">
+        <v>0</v>
+      </c>
+      <c r="BM21" t="b">
+        <v>1</v>
+      </c>
+      <c r="BO21" t="b">
+        <v>1</v>
+      </c>
+      <c r="BP21" t="s">
+        <v>195</v>
+      </c>
+      <c r="BS21">
+        <v>1024</v>
+      </c>
+      <c r="BT21">
+        <v>1395</v>
+      </c>
+      <c r="BU21">
+        <v>1024</v>
+      </c>
+      <c r="BV21">
+        <v>1684</v>
+      </c>
+      <c r="BW21">
+        <v>0</v>
+      </c>
+      <c r="BX21" t="b">
+        <v>0</v>
+      </c>
+      <c r="BY21" t="b">
+        <v>0</v>
+      </c>
+      <c r="BZ21" t="b">
+        <v>0</v>
+      </c>
+      <c r="CA21" t="b">
+        <v>0</v>
+      </c>
+      <c r="CB21" t="b">
+        <v>0</v>
+      </c>
+      <c r="CC21">
+        <v>0</v>
+      </c>
+      <c r="CD21" t="b">
+        <v>0</v>
+      </c>
+      <c r="CE21" t="b">
+        <v>0</v>
+      </c>
+      <c r="CF21" t="b">
+        <v>0</v>
+      </c>
+      <c r="CG21" t="b">
+        <v>0</v>
+      </c>
+      <c r="CH21">
+        <v>29</v>
+      </c>
+      <c r="CL21">
+        <v>10.845000000000001</v>
+      </c>
+      <c r="CM21" t="b">
+        <v>0</v>
+      </c>
+      <c r="CN21">
+        <v>3.6280000000000001</v>
+      </c>
+      <c r="CO21">
+        <v>3.61</v>
+      </c>
+      <c r="CP21">
+        <v>3.6040000000000001</v>
+      </c>
+      <c r="CQ21">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="CR21" t="b">
+        <v>0</v>
+      </c>
+      <c r="CS21" t="b">
+        <v>0</v>
+      </c>
+      <c r="CX21">
+        <v>248</v>
+      </c>
+      <c r="CY21">
+        <v>40</v>
+      </c>
+      <c r="CZ21">
+        <v>14</v>
+      </c>
+      <c r="DA21">
+        <v>20</v>
+      </c>
+      <c r="DB21">
+        <v>11</v>
+      </c>
+      <c r="DC21">
+        <v>36458.400000000001</v>
+      </c>
+      <c r="DD21">
+        <v>9348.31</v>
+      </c>
+      <c r="DE21" t="s">
+        <v>244</v>
+      </c>
+      <c r="DF21" t="s">
+        <v>176</v>
+      </c>
+      <c r="DG21">
+        <v>0</v>
+      </c>
+      <c r="DH21">
+        <v>30</v>
+      </c>
+      <c r="DI21" t="b">
+        <v>0</v>
+      </c>
+      <c r="DJ21">
+        <v>10</v>
+      </c>
+      <c r="DK21" t="b">
+        <v>1</v>
+      </c>
+      <c r="DM21" t="s">
+        <v>177</v>
+      </c>
+      <c r="DN21">
+        <v>39.961265769999997</v>
+      </c>
+      <c r="DO21">
+        <v>-106.21651670999999</v>
+      </c>
+      <c r="DP21">
+        <v>738.7</v>
+      </c>
+      <c r="DQ21">
+        <v>7949.9</v>
+      </c>
+      <c r="DR21">
+        <v>393.7</v>
+      </c>
+      <c r="DS21" t="b">
+        <v>1</v>
+      </c>
+      <c r="DT21">
+        <v>1</v>
+      </c>
+      <c r="DU21">
+        <v>1</v>
+      </c>
+      <c r="DV21" t="b">
+        <v>0</v>
+      </c>
+      <c r="DW21" t="b">
+        <v>0</v>
+      </c>
+      <c r="DX21" t="b">
+        <v>0</v>
+      </c>
+      <c r="DY21" t="b">
+        <v>0</v>
+      </c>
+      <c r="DZ21">
+        <v>2</v>
+      </c>
+      <c r="EA21" t="b">
+        <v>1</v>
+      </c>
+      <c r="EB21" t="b">
+        <v>0</v>
+      </c>
+      <c r="EC21" t="b">
+        <v>0</v>
+      </c>
+      <c r="ED21" t="s">
+        <v>178</v>
+      </c>
+      <c r="EE21">
+        <v>98.4</v>
+      </c>
+      <c r="EG21">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="EH21" t="s">
+        <v>210</v>
+      </c>
+      <c r="EI21">
+        <v>15</v>
+      </c>
+      <c r="EK21" t="s">
+        <v>227</v>
+      </c>
+      <c r="EQ21">
+        <v>471.3</v>
+      </c>
+      <c r="ER21">
+        <v>9961.2999999999993</v>
+      </c>
+      <c r="ES21">
+        <v>133.9</v>
+      </c>
+      <c r="ET21">
+        <v>43.4</v>
+      </c>
+      <c r="EU21">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="EV21">
+        <v>0</v>
+      </c>
+      <c r="EW21">
+        <v>264</v>
+      </c>
+      <c r="EY21" t="s">
+        <v>228</v>
+      </c>
+      <c r="FB21" t="s">
+        <v>218</v>
+      </c>
+      <c r="FD21" t="s">
+        <v>180</v>
+      </c>
+      <c r="FE21" t="s">
+        <v>181</v>
+      </c>
+      <c r="FK21" t="s">
+        <v>237</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DJI_Mavic_Air/DJI_Mavic_Air.xlsx
+++ b/DJI_Mavic_Air/DJI_Mavic_Air.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\6025211018 - Swardiantara S\drone-timeline\DJI_Mavic_Air\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data Kuliah\S2 ITS\Semester 2\TESIS - PROPOSAL\DATASET PREPARATION\drone-timeline\DJI_Mavic_Air\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B42DB4D-BE42-4E81-9CFB-E4C4C7C03144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="df048" sheetId="1" r:id="rId1"/>
@@ -20,15 +21,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -774,7 +766,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1121,11 +1113,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:FK13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="ET1" workbookViewId="0">
+      <selection activeCell="FK8" sqref="FK8:FK12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6272,10 +6264,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:FK21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
